--- a/vendas xbox.xlsx
+++ b/vendas xbox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\planilhas\dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Castro\Desktop\vendas_xbox-dio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2F8ED6-40B2-4E08-832A-7140AC03FA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E517699-D58E-407C-BA63-EE1CC84C2912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
     <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,22 @@
     <sheet name="C̳álculos" sheetId="3" r:id="rId3"/>
     <sheet name="D̳ashboard" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="SegmentaçãodeDados_Plan">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="13" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId6"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -39,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="327">
   <si>
     <t>Paleta de Cores</t>
   </si>
@@ -979,6 +993,48 @@
   </si>
   <si>
     <t>Subscription Price</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Soma de Total Value</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>abr</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>ago</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>dez</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1143,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1108,37 +1164,18 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1206,6 +1243,969 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[vendas xbox.xlsx]C̳álculos!Tabela dinâmica1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0"/>
+          <c:y val="0.19194958222033812"/>
+          <c:w val="0.97500887301287442"/>
+          <c:h val="0.67988587834892134"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>C̳álculos!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>C̳álculos!$C$6:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>abr</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mai</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>jun</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jul</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ago</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>set</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>out</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>nov</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>dez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>C̳álculos!$D$6:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05C6-4719-9073-C180D8711FC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="1493735007"/>
+        <c:axId val="1493736927"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1493735007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1493736927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1493736927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1493735007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1945,11 +2945,6749 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1676399</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Plan">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8781979A-A80D-06D4-3C9E-E3D110F1288E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Plan"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4076699" y="666750"/>
+              <a:ext cx="4352925" cy="2533650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>277415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71FC0E89-8D82-6012-792F-D271AEB541D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>369094</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD162609-B8D1-4771-82BB-E2683C51D73F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4369594" y="571500"/>
+          <a:ext cx="2488406" cy="726281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gustavo Castro" refreshedDate="45983.92600162037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="295" xr:uid="{DA241B1D-206E-49EC-AD5B-319148C0BB32}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabela1"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="Subscriber ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3231" maxValue="3525"/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="280">
+        <s v="João Silva"/>
+        <s v="Maria Oliveira"/>
+        <s v="Lucas Fernandes"/>
+        <s v="Ana Souza"/>
+        <s v="Pedro Gonçalves"/>
+        <s v="Felipe Costa"/>
+        <s v="Camila Ribeiro"/>
+        <s v="André Mendes"/>
+        <s v="Sofia Almeida"/>
+        <s v="Bruno Martins"/>
+        <s v="Rita Castro"/>
+        <s v="Marco Túlio"/>
+        <s v="Lívia Silveira"/>
+        <s v="Diogo Sousa"/>
+        <s v="Fernanda Lima"/>
+        <s v="Caio Pereira"/>
+        <s v="Beatriz Gomes"/>
+        <s v="Cesar Oliveira"/>
+        <s v="Débora Machado"/>
+        <s v="Eduardo Vargas"/>
+        <s v="Gabriela Santos"/>
+        <s v="Henrique Dias"/>
+        <s v="Isabela Moreira"/>
+        <s v="Joaquim Barbosa"/>
+        <s v="Lara Rocha"/>
+        <s v="Matheus Silva"/>
+        <s v="Nicole Costa"/>
+        <s v="Otávio Mendonça"/>
+        <s v="Paula Ferreira"/>
+        <s v="Raquel Alves"/>
+        <s v="Samuel Pires"/>
+        <s v="Tânia Barros"/>
+        <s v="Vinicius Lima"/>
+        <s v="Yasmin Teixeira"/>
+        <s v="Zé Carlos"/>
+        <s v="Amanda Nogueira"/>
+        <s v="Bruno Cavalheiro"/>
+        <s v="Carla Dias"/>
+        <s v="Diego Fontes"/>
+        <s v="Eunice Lima"/>
+        <s v="Fábio Martins"/>
+        <s v="Gisele Araújo"/>
+        <s v="Hélio Castro"/>
+        <s v="Ingrid Menezes"/>
+        <s v="Jorge Baptista"/>
+        <s v="Kléber Oliveira"/>
+        <s v="Luciana Freitas"/>
+        <s v="Márcia Eller"/>
+        <s v="Nilo Peçanha"/>
+        <s v="Oscar Neves"/>
+        <s v="Patrícia Soares"/>
+        <s v="Quirino Gonçalves"/>
+        <s v="Raul Machado"/>
+        <s v="Sônia Lobo"/>
+        <s v="Tiago Ramos"/>
+        <s v="Ugo Pires"/>
+        <s v="Valéria Nobre"/>
+        <s v="William Siqueira"/>
+        <s v="Xuxa Meneghel"/>
+        <s v="Yara Figueiredo"/>
+        <s v="Zacarias Alves"/>
+        <s v="Amanda Bynes"/>
+        <s v="Bruno Mars"/>
+        <s v="Carla Bruni"/>
+        <s v="Diego Maradona"/>
+        <s v="Estela Marques"/>
+        <s v="Fábio Nobre"/>
+        <s v="Gabriel Oliveira"/>
+        <s v="Helena Santos"/>
+        <s v="Ivan Carvalho"/>
+        <s v="Júlia Ferreira"/>
+        <s v="Karla Alves"/>
+        <s v="Lucas Mendes"/>
+        <s v="Mônica Gomes"/>
+        <s v="Norberto Queiroz"/>
+        <s v="Otávio Barros"/>
+        <s v="Paula Vieira"/>
+        <s v="Quentin Ramos"/>
+        <s v="Raquel Novaes"/>
+        <s v="Samantha Lopes"/>
+        <s v="Tiago Martins"/>
+        <s v="Ulysses Guimarães"/>
+        <s v="Vanessa Silva"/>
+        <s v="William Carneiro"/>
+        <s v="Ximena Rocha"/>
+        <s v="Yasmin Figueiredo"/>
+        <s v="Zara Cunha"/>
+        <s v="Alan Teixeira"/>
+        <s v="Bárbara Oliveira"/>
+        <s v="Carlos Junqueira"/>
+        <s v="Daniela Moura"/>
+        <s v="Eduardo Lima"/>
+        <s v="Fabiana Araújo"/>
+        <s v="Geraldo Ribeiro"/>
+        <s v="Héctor Vargas"/>
+        <s v="Isabela Fonseca"/>
+        <s v="João Pedro Almeida"/>
+        <s v="Klara Costa"/>
+        <s v="Luciana Mendes"/>
+        <s v="Marcelo Gouveia"/>
+        <s v="Nívea Borges"/>
+        <s v="Oscar Nogueira"/>
+        <s v="Patrícia Alves"/>
+        <s v="Rafaela Silva"/>
+        <s v="Samantha Moraes"/>
+        <s v="Tatiana Rocha"/>
+        <s v="Ulisses Tavares"/>
+        <s v="Víctor Lemos"/>
+        <s v="Wilma Barros"/>
+        <s v="Xavier Nascimento"/>
+        <s v="Yago Pereira"/>
+        <s v="Zilda Ferreira"/>
+        <s v="Amanda Lopes"/>
+        <s v="Bruno Miranda"/>
+        <s v="Célia Torres"/>
+        <s v="Diogo Souza"/>
+        <s v="Elisa Castro"/>
+        <s v="Fátima Lima"/>
+        <s v="Hélio Martins"/>
+        <s v="Íris Santos"/>
+        <s v="João Marcelo"/>
+        <s v="Larissa Gomes"/>
+        <s v="Márcio Silva"/>
+        <s v="Nadia Costa"/>
+        <s v="Oscar Almeida"/>
+        <s v="Patricia Soares"/>
+        <s v="Quênia Barros"/>
+        <s v="Rafael Torres"/>
+        <s v="Silvia Nascimento"/>
+        <s v="Tiago Mendes"/>
+        <s v="Ursula Silva"/>
+        <s v="Vanessa Moraes"/>
+        <s v="Waldir Junior"/>
+        <s v="Xavier Lopes"/>
+        <s v="Yolanda Freitas"/>
+        <s v="Zacarias Nunes"/>
+        <s v="Ana Clara Barreto"/>
+        <s v="Bruno Henrique"/>
+        <s v="Carlos Eduardo"/>
+        <s v="Débora Lima"/>
+        <s v="Elisa Neves"/>
+        <s v="Fabiano Gomes"/>
+        <s v="Gisele Oliveira"/>
+        <s v="Héctor Silva"/>
+        <s v="Igor Martins"/>
+        <s v="Joana Figueiredo"/>
+        <s v="Kleber Machado"/>
+        <s v="Luciana Santos"/>
+        <s v="Marcos Teixeira"/>
+        <s v="Natalia Costa"/>
+        <s v="Oscar Ribeiro"/>
+        <s v="Patricia Almeida"/>
+        <s v="Quirino Junior"/>
+        <s v="Renata Machado"/>
+        <s v="Sônia Alves"/>
+        <s v="Tiago Nunes"/>
+        <s v="Ulysses Pereira"/>
+        <s v="Vanessa Lima"/>
+        <s v="Wagner Santos"/>
+        <s v="Yasmin Silva"/>
+        <s v="Zacarias de Souza"/>
+        <s v="André Lima"/>
+        <s v="Bianca Freitas"/>
+        <s v="Caio Mendes"/>
+        <s v="Eduardo Costa"/>
+        <s v="Fernanda Gomes"/>
+        <s v="Guilherme Souza"/>
+        <s v="Helena Ribeiro"/>
+        <s v="Igor Santos"/>
+        <s v="João Carvalho"/>
+        <s v="Klara Fagundes"/>
+        <s v="Lúcia Mendonça"/>
+        <s v="Marcelo Novaes"/>
+        <s v="Nina Pacheco"/>
+        <s v="Olívia Rios"/>
+        <s v="Paulo Quintana"/>
+        <s v="Raquel Domingos"/>
+        <s v="Samuel Viana"/>
+        <s v="Tatiane Rocha"/>
+        <s v="Ulysses Farias"/>
+        <s v="Vanessa Moreira"/>
+        <s v="William Carvalho"/>
+        <s v="Ximena Barros"/>
+        <s v="Yara Machado"/>
+        <s v="Zacarias Costa"/>
+        <s v="André Lopes"/>
+        <s v="Beatriz Souza"/>
+        <s v="Daniela Araújo"/>
+        <s v="Eduardo Santos"/>
+        <s v="Gabriel Teixeira"/>
+        <s v="Igor Mendes"/>
+        <s v="Joana Silveira"/>
+        <s v="Lucas Martins"/>
+        <s v="Marcela Gouveia"/>
+        <s v="Nicolas Borges"/>
+        <s v="Olivia Freitas"/>
+        <s v="Paulo Nogueira"/>
+        <s v="Raquel Andrade"/>
+        <s v="Sônia Carvalho"/>
+        <s v="Tiago Rodrigues"/>
+        <s v="Ursula Monteiro"/>
+        <s v="Vanessa Pereira"/>
+        <s v="Walter Silva"/>
+        <s v="Xavier Almeida"/>
+        <s v="Yasmine Correia"/>
+        <s v="Zacarias Almeida"/>
+        <s v="Amanda Costa"/>
+        <s v="Bruno Ferreira"/>
+        <s v="Diogo Martins"/>
+        <s v="Elisa Campos"/>
+        <s v="Fabiana Lima"/>
+        <s v="Gabriel Santos"/>
+        <s v="Helena Ferreira"/>
+        <s v="Ígor Nunes"/>
+        <s v="Luciana Morais"/>
+        <s v="Marcos Vinícius"/>
+        <s v="Natália Barros"/>
+        <s v="Oscar Sampaio"/>
+        <s v="Patrícia Leite"/>
+        <s v="Quênia Rocha"/>
+        <s v="Sandra Gouveia"/>
+        <s v="Tiago Lacerda"/>
+        <s v="Ursula Fonseca"/>
+        <s v="Vanessa Andrade"/>
+        <s v="William Castro"/>
+        <s v="Xavier Monteiro"/>
+        <s v="Yasmin Figueira"/>
+        <s v="Zacarias Mendonça"/>
+        <s v="Amanda Menezes"/>
+        <s v="Bruno Santos"/>
+        <s v="Carla Ferreira"/>
+        <s v="Diogo Alves"/>
+        <s v="Fabiano Pires"/>
+        <s v="Giovana Ribeiro"/>
+        <s v="Hélio Costa"/>
+        <s v="Íris Loureiro"/>
+        <s v="João Pereira"/>
+        <s v="Klara Silva"/>
+        <s v="Luciana Barros"/>
+        <s v="Marcos Gomes"/>
+        <s v="Natália Soares"/>
+        <s v="Oscar Machado"/>
+        <s v="Patrícia Lima"/>
+        <s v="Quirino Neto"/>
+        <s v="Rafaela Souza"/>
+        <s v="Sandro Almeida"/>
+        <s v="Tânia Ribeiro"/>
+        <s v="Ugo Dias"/>
+        <s v="Valéria Lima"/>
+        <s v="William Fernandes"/>
+        <s v="Xuxa Mendes"/>
+        <s v="Ygor Farias"/>
+        <s v="Zilda Barros"/>
+        <s v="Amanda Santos"/>
+        <s v="Bruno Costa"/>
+        <s v="Carla Rodrigues"/>
+        <s v="Diogo Pereira"/>
+        <s v="Elisa Correia"/>
+        <s v="Fábio Lourenço"/>
+        <s v="Gabriela Neves"/>
+        <s v="Henrique Gonçalves"/>
+        <s v="João Marcelo Alves"/>
+        <s v="Klara Fonseca"/>
+        <s v="Lucas Mendonça"/>
+        <s v="Marcela Torres"/>
+        <s v="Natália Castro"/>
+        <s v="Oscar Martins"/>
+        <s v="Patrícia Oliveira"/>
+        <s v="Quentin Nogueira"/>
+        <s v="Raquel Silva"/>
+        <s v="Sandro Gomes"/>
+        <s v="Tânia Machado"/>
+        <s v="Xavier Reis"/>
+        <s v="Yasmin Rocha"/>
+        <s v="Zacarias Duarte"/>
+        <s v="Amanda Freitas"/>
+        <s v="Bruno Almeida"/>
+        <s v="Carla Siqueira"/>
+        <s v="Diogo Ramos"/>
+        <s v="Elisa Magalhães"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Plan" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Ultimate"/>
+        <s v="Core"/>
+        <s v="Standard"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Start Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-01T00:00:00" maxDate="2024-12-17T00:00:00" count="294">
+        <d v="2024-01-01T00:00:00"/>
+        <d v="2024-01-15T00:00:00"/>
+        <d v="2024-02-10T00:00:00"/>
+        <d v="2024-02-20T00:00:00"/>
+        <d v="2024-03-05T00:00:00"/>
+        <d v="2024-03-02T00:00:00"/>
+        <d v="2024-03-03T00:00:00"/>
+        <d v="2024-03-04T00:00:00"/>
+        <d v="2024-03-06T00:00:00"/>
+        <d v="2024-03-07T00:00:00"/>
+        <d v="2024-03-08T00:00:00"/>
+        <d v="2024-03-09T00:00:00"/>
+        <d v="2024-03-10T00:00:00"/>
+        <d v="2024-03-11T00:00:00"/>
+        <d v="2024-03-12T00:00:00"/>
+        <d v="2024-03-13T00:00:00"/>
+        <d v="2024-03-14T00:00:00"/>
+        <d v="2024-03-15T00:00:00"/>
+        <d v="2024-03-16T00:00:00"/>
+        <d v="2024-03-17T00:00:00"/>
+        <d v="2024-03-18T00:00:00"/>
+        <d v="2024-03-19T00:00:00"/>
+        <d v="2024-03-20T00:00:00"/>
+        <d v="2024-03-21T00:00:00"/>
+        <d v="2024-03-22T00:00:00"/>
+        <d v="2024-03-23T00:00:00"/>
+        <d v="2024-03-24T00:00:00"/>
+        <d v="2024-03-25T00:00:00"/>
+        <d v="2024-03-26T00:00:00"/>
+        <d v="2024-03-27T00:00:00"/>
+        <d v="2024-03-28T00:00:00"/>
+        <d v="2024-03-29T00:00:00"/>
+        <d v="2024-03-30T00:00:00"/>
+        <d v="2024-03-31T00:00:00"/>
+        <d v="2024-04-01T00:00:00"/>
+        <d v="2024-04-02T00:00:00"/>
+        <d v="2024-04-03T00:00:00"/>
+        <d v="2024-04-04T00:00:00"/>
+        <d v="2024-04-05T00:00:00"/>
+        <d v="2024-04-06T00:00:00"/>
+        <d v="2024-04-07T00:00:00"/>
+        <d v="2024-04-08T00:00:00"/>
+        <d v="2024-04-09T00:00:00"/>
+        <d v="2024-04-10T00:00:00"/>
+        <d v="2024-04-11T00:00:00"/>
+        <d v="2024-04-12T00:00:00"/>
+        <d v="2024-04-13T00:00:00"/>
+        <d v="2024-04-14T00:00:00"/>
+        <d v="2024-04-15T00:00:00"/>
+        <d v="2024-04-16T00:00:00"/>
+        <d v="2024-04-17T00:00:00"/>
+        <d v="2024-04-18T00:00:00"/>
+        <d v="2024-04-19T00:00:00"/>
+        <d v="2024-04-20T00:00:00"/>
+        <d v="2024-04-21T00:00:00"/>
+        <d v="2024-04-22T00:00:00"/>
+        <d v="2024-04-23T00:00:00"/>
+        <d v="2024-04-24T00:00:00"/>
+        <d v="2024-04-25T00:00:00"/>
+        <d v="2024-04-26T00:00:00"/>
+        <d v="2024-04-27T00:00:00"/>
+        <d v="2024-04-28T00:00:00"/>
+        <d v="2024-04-29T00:00:00"/>
+        <d v="2024-04-30T00:00:00"/>
+        <d v="2024-05-01T00:00:00"/>
+        <d v="2024-05-02T00:00:00"/>
+        <d v="2024-05-03T00:00:00"/>
+        <d v="2024-05-04T00:00:00"/>
+        <d v="2024-05-05T00:00:00"/>
+        <d v="2024-05-06T00:00:00"/>
+        <d v="2024-05-07T00:00:00"/>
+        <d v="2024-05-08T00:00:00"/>
+        <d v="2024-05-09T00:00:00"/>
+        <d v="2024-05-10T00:00:00"/>
+        <d v="2024-05-11T00:00:00"/>
+        <d v="2024-05-12T00:00:00"/>
+        <d v="2024-05-13T00:00:00"/>
+        <d v="2024-05-14T00:00:00"/>
+        <d v="2024-05-15T00:00:00"/>
+        <d v="2024-05-16T00:00:00"/>
+        <d v="2024-05-17T00:00:00"/>
+        <d v="2024-05-18T00:00:00"/>
+        <d v="2024-05-19T00:00:00"/>
+        <d v="2024-05-20T00:00:00"/>
+        <d v="2024-05-21T00:00:00"/>
+        <d v="2024-05-22T00:00:00"/>
+        <d v="2024-05-23T00:00:00"/>
+        <d v="2024-05-24T00:00:00"/>
+        <d v="2024-05-25T00:00:00"/>
+        <d v="2024-05-26T00:00:00"/>
+        <d v="2024-05-27T00:00:00"/>
+        <d v="2024-05-28T00:00:00"/>
+        <d v="2024-05-29T00:00:00"/>
+        <d v="2024-05-30T00:00:00"/>
+        <d v="2024-05-31T00:00:00"/>
+        <d v="2024-06-01T00:00:00"/>
+        <d v="2024-06-02T00:00:00"/>
+        <d v="2024-06-03T00:00:00"/>
+        <d v="2024-06-04T00:00:00"/>
+        <d v="2024-06-05T00:00:00"/>
+        <d v="2024-06-06T00:00:00"/>
+        <d v="2024-06-07T00:00:00"/>
+        <d v="2024-06-08T00:00:00"/>
+        <d v="2024-06-09T00:00:00"/>
+        <d v="2024-06-10T00:00:00"/>
+        <d v="2024-06-11T00:00:00"/>
+        <d v="2024-06-12T00:00:00"/>
+        <d v="2024-06-13T00:00:00"/>
+        <d v="2024-06-14T00:00:00"/>
+        <d v="2024-06-15T00:00:00"/>
+        <d v="2024-06-16T00:00:00"/>
+        <d v="2024-06-17T00:00:00"/>
+        <d v="2024-06-18T00:00:00"/>
+        <d v="2024-06-19T00:00:00"/>
+        <d v="2024-06-20T00:00:00"/>
+        <d v="2024-06-21T00:00:00"/>
+        <d v="2024-06-22T00:00:00"/>
+        <d v="2024-06-23T00:00:00"/>
+        <d v="2024-06-24T00:00:00"/>
+        <d v="2024-06-25T00:00:00"/>
+        <d v="2024-06-26T00:00:00"/>
+        <d v="2024-06-27T00:00:00"/>
+        <d v="2024-06-28T00:00:00"/>
+        <d v="2024-06-29T00:00:00"/>
+        <d v="2024-06-30T00:00:00"/>
+        <d v="2024-07-01T00:00:00"/>
+        <d v="2024-07-02T00:00:00"/>
+        <d v="2024-07-03T00:00:00"/>
+        <d v="2024-07-04T00:00:00"/>
+        <d v="2024-07-05T00:00:00"/>
+        <d v="2024-07-06T00:00:00"/>
+        <d v="2024-07-07T00:00:00"/>
+        <d v="2024-07-08T00:00:00"/>
+        <d v="2024-07-09T00:00:00"/>
+        <d v="2024-07-10T00:00:00"/>
+        <d v="2024-07-11T00:00:00"/>
+        <d v="2024-07-12T00:00:00"/>
+        <d v="2024-07-13T00:00:00"/>
+        <d v="2024-07-14T00:00:00"/>
+        <d v="2024-07-15T00:00:00"/>
+        <d v="2024-07-16T00:00:00"/>
+        <d v="2024-07-17T00:00:00"/>
+        <d v="2024-07-18T00:00:00"/>
+        <d v="2024-07-19T00:00:00"/>
+        <d v="2024-07-20T00:00:00"/>
+        <d v="2024-07-21T00:00:00"/>
+        <d v="2024-07-22T00:00:00"/>
+        <d v="2024-07-23T00:00:00"/>
+        <d v="2024-07-24T00:00:00"/>
+        <d v="2024-07-25T00:00:00"/>
+        <d v="2024-07-26T00:00:00"/>
+        <d v="2024-07-27T00:00:00"/>
+        <d v="2024-07-28T00:00:00"/>
+        <d v="2024-07-29T00:00:00"/>
+        <d v="2024-07-30T00:00:00"/>
+        <d v="2024-07-31T00:00:00"/>
+        <d v="2024-08-01T00:00:00"/>
+        <d v="2024-08-02T00:00:00"/>
+        <d v="2024-08-03T00:00:00"/>
+        <d v="2024-08-04T00:00:00"/>
+        <d v="2024-08-05T00:00:00"/>
+        <d v="2024-08-06T00:00:00"/>
+        <d v="2024-08-07T00:00:00"/>
+        <d v="2024-08-08T00:00:00"/>
+        <d v="2024-08-09T00:00:00"/>
+        <d v="2024-08-10T00:00:00"/>
+        <d v="2024-08-11T00:00:00"/>
+        <d v="2024-08-12T00:00:00"/>
+        <d v="2024-08-13T00:00:00"/>
+        <d v="2024-08-14T00:00:00"/>
+        <d v="2024-08-15T00:00:00"/>
+        <d v="2024-08-16T00:00:00"/>
+        <d v="2024-08-17T00:00:00"/>
+        <d v="2024-08-18T00:00:00"/>
+        <d v="2024-08-19T00:00:00"/>
+        <d v="2024-08-20T00:00:00"/>
+        <d v="2024-08-21T00:00:00"/>
+        <d v="2024-08-22T00:00:00"/>
+        <d v="2024-08-23T00:00:00"/>
+        <d v="2024-08-24T00:00:00"/>
+        <d v="2024-08-25T00:00:00"/>
+        <d v="2024-08-26T00:00:00"/>
+        <d v="2024-08-27T00:00:00"/>
+        <d v="2024-08-28T00:00:00"/>
+        <d v="2024-08-29T00:00:00"/>
+        <d v="2024-08-30T00:00:00"/>
+        <d v="2024-08-31T00:00:00"/>
+        <d v="2024-09-01T00:00:00"/>
+        <d v="2024-09-02T00:00:00"/>
+        <d v="2024-09-03T00:00:00"/>
+        <d v="2024-09-04T00:00:00"/>
+        <d v="2024-09-05T00:00:00"/>
+        <d v="2024-09-06T00:00:00"/>
+        <d v="2024-09-07T00:00:00"/>
+        <d v="2024-09-08T00:00:00"/>
+        <d v="2024-09-09T00:00:00"/>
+        <d v="2024-09-10T00:00:00"/>
+        <d v="2024-09-11T00:00:00"/>
+        <d v="2024-09-12T00:00:00"/>
+        <d v="2024-09-13T00:00:00"/>
+        <d v="2024-09-14T00:00:00"/>
+        <d v="2024-09-15T00:00:00"/>
+        <d v="2024-09-16T00:00:00"/>
+        <d v="2024-09-17T00:00:00"/>
+        <d v="2024-09-18T00:00:00"/>
+        <d v="2024-09-19T00:00:00"/>
+        <d v="2024-09-20T00:00:00"/>
+        <d v="2024-09-21T00:00:00"/>
+        <d v="2024-09-22T00:00:00"/>
+        <d v="2024-09-23T00:00:00"/>
+        <d v="2024-09-24T00:00:00"/>
+        <d v="2024-09-25T00:00:00"/>
+        <d v="2024-09-26T00:00:00"/>
+        <d v="2024-09-27T00:00:00"/>
+        <d v="2024-09-28T00:00:00"/>
+        <d v="2024-09-29T00:00:00"/>
+        <d v="2024-09-30T00:00:00"/>
+        <d v="2024-10-01T00:00:00"/>
+        <d v="2024-10-02T00:00:00"/>
+        <d v="2024-10-03T00:00:00"/>
+        <d v="2024-10-04T00:00:00"/>
+        <d v="2024-10-05T00:00:00"/>
+        <d v="2024-10-06T00:00:00"/>
+        <d v="2024-10-07T00:00:00"/>
+        <d v="2024-10-08T00:00:00"/>
+        <d v="2024-10-09T00:00:00"/>
+        <d v="2024-10-10T00:00:00"/>
+        <d v="2024-10-11T00:00:00"/>
+        <d v="2024-10-12T00:00:00"/>
+        <d v="2024-10-13T00:00:00"/>
+        <d v="2024-10-14T00:00:00"/>
+        <d v="2024-10-15T00:00:00"/>
+        <d v="2024-10-16T00:00:00"/>
+        <d v="2024-10-17T00:00:00"/>
+        <d v="2024-10-18T00:00:00"/>
+        <d v="2024-10-19T00:00:00"/>
+        <d v="2024-10-20T00:00:00"/>
+        <d v="2024-10-21T00:00:00"/>
+        <d v="2024-10-22T00:00:00"/>
+        <d v="2024-10-23T00:00:00"/>
+        <d v="2024-10-24T00:00:00"/>
+        <d v="2024-10-25T00:00:00"/>
+        <d v="2024-10-26T00:00:00"/>
+        <d v="2024-10-27T00:00:00"/>
+        <d v="2024-10-28T00:00:00"/>
+        <d v="2024-10-29T00:00:00"/>
+        <d v="2024-10-30T00:00:00"/>
+        <d v="2024-10-31T00:00:00"/>
+        <d v="2024-11-01T00:00:00"/>
+        <d v="2024-11-02T00:00:00"/>
+        <d v="2024-11-03T00:00:00"/>
+        <d v="2024-11-04T00:00:00"/>
+        <d v="2024-11-05T00:00:00"/>
+        <d v="2024-11-06T00:00:00"/>
+        <d v="2024-11-07T00:00:00"/>
+        <d v="2024-11-08T00:00:00"/>
+        <d v="2024-11-09T00:00:00"/>
+        <d v="2024-11-10T00:00:00"/>
+        <d v="2024-11-11T00:00:00"/>
+        <d v="2024-11-12T00:00:00"/>
+        <d v="2024-11-13T00:00:00"/>
+        <d v="2024-11-14T00:00:00"/>
+        <d v="2024-11-15T00:00:00"/>
+        <d v="2024-11-16T00:00:00"/>
+        <d v="2024-11-17T00:00:00"/>
+        <d v="2024-11-18T00:00:00"/>
+        <d v="2024-11-19T00:00:00"/>
+        <d v="2024-11-20T00:00:00"/>
+        <d v="2024-11-21T00:00:00"/>
+        <d v="2024-11-22T00:00:00"/>
+        <d v="2024-11-23T00:00:00"/>
+        <d v="2024-11-24T00:00:00"/>
+        <d v="2024-11-25T00:00:00"/>
+        <d v="2024-11-26T00:00:00"/>
+        <d v="2024-11-27T00:00:00"/>
+        <d v="2024-11-28T00:00:00"/>
+        <d v="2024-11-29T00:00:00"/>
+        <d v="2024-11-30T00:00:00"/>
+        <d v="2024-12-01T00:00:00"/>
+        <d v="2024-12-02T00:00:00"/>
+        <d v="2024-12-03T00:00:00"/>
+        <d v="2024-12-04T00:00:00"/>
+        <d v="2024-12-05T00:00:00"/>
+        <d v="2024-12-06T00:00:00"/>
+        <d v="2024-12-07T00:00:00"/>
+        <d v="2024-12-08T00:00:00"/>
+        <d v="2024-12-09T00:00:00"/>
+        <d v="2024-12-10T00:00:00"/>
+        <d v="2024-12-11T00:00:00"/>
+        <d v="2024-12-12T00:00:00"/>
+        <d v="2024-12-13T00:00:00"/>
+        <d v="2024-12-14T00:00:00"/>
+        <d v="2024-12-15T00:00:00"/>
+        <d v="2024-12-16T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="14"/>
+    </cacheField>
+    <cacheField name="Auto Renewal" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Yes"/>
+        <s v="No"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Subscription Price" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="15"/>
+    </cacheField>
+    <cacheField name="Subscription Type" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Monthly"/>
+        <s v="Annual"/>
+        <s v="Quarterly"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="EA Play Season Pass" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="EA Play Season Pass_x000a_Price" numFmtId="44">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="30" maxValue="30"/>
+    </cacheField>
+    <cacheField name="Minecraft Season Pass" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Minecraft Season Pass Price" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Coupon Value" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Total Value" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="62"/>
+    </cacheField>
+    <cacheField name="Dias (Start Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="3">
+        <rangePr groupBy="days" startDate="2024-01-01T00:00:00" endDate="2024-12-17T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;01/01/2024"/>
+          <s v="01/jan"/>
+          <s v="02/jan"/>
+          <s v="03/jan"/>
+          <s v="04/jan"/>
+          <s v="05/jan"/>
+          <s v="06/jan"/>
+          <s v="07/jan"/>
+          <s v="08/jan"/>
+          <s v="09/jan"/>
+          <s v="10/jan"/>
+          <s v="11/jan"/>
+          <s v="12/jan"/>
+          <s v="13/jan"/>
+          <s v="14/jan"/>
+          <s v="15/jan"/>
+          <s v="16/jan"/>
+          <s v="17/jan"/>
+          <s v="18/jan"/>
+          <s v="19/jan"/>
+          <s v="20/jan"/>
+          <s v="21/jan"/>
+          <s v="22/jan"/>
+          <s v="23/jan"/>
+          <s v="24/jan"/>
+          <s v="25/jan"/>
+          <s v="26/jan"/>
+          <s v="27/jan"/>
+          <s v="28/jan"/>
+          <s v="29/jan"/>
+          <s v="30/jan"/>
+          <s v="31/jan"/>
+          <s v="01/fev"/>
+          <s v="02/fev"/>
+          <s v="03/fev"/>
+          <s v="04/fev"/>
+          <s v="05/fev"/>
+          <s v="06/fev"/>
+          <s v="07/fev"/>
+          <s v="08/fev"/>
+          <s v="09/fev"/>
+          <s v="10/fev"/>
+          <s v="11/fev"/>
+          <s v="12/fev"/>
+          <s v="13/fev"/>
+          <s v="14/fev"/>
+          <s v="15/fev"/>
+          <s v="16/fev"/>
+          <s v="17/fev"/>
+          <s v="18/fev"/>
+          <s v="19/fev"/>
+          <s v="20/fev"/>
+          <s v="21/fev"/>
+          <s v="22/fev"/>
+          <s v="23/fev"/>
+          <s v="24/fev"/>
+          <s v="25/fev"/>
+          <s v="26/fev"/>
+          <s v="27/fev"/>
+          <s v="28/fev"/>
+          <s v="29/fev"/>
+          <s v="01/mar"/>
+          <s v="02/mar"/>
+          <s v="03/mar"/>
+          <s v="04/mar"/>
+          <s v="05/mar"/>
+          <s v="06/mar"/>
+          <s v="07/mar"/>
+          <s v="08/mar"/>
+          <s v="09/mar"/>
+          <s v="10/mar"/>
+          <s v="11/mar"/>
+          <s v="12/mar"/>
+          <s v="13/mar"/>
+          <s v="14/mar"/>
+          <s v="15/mar"/>
+          <s v="16/mar"/>
+          <s v="17/mar"/>
+          <s v="18/mar"/>
+          <s v="19/mar"/>
+          <s v="20/mar"/>
+          <s v="21/mar"/>
+          <s v="22/mar"/>
+          <s v="23/mar"/>
+          <s v="24/mar"/>
+          <s v="25/mar"/>
+          <s v="26/mar"/>
+          <s v="27/mar"/>
+          <s v="28/mar"/>
+          <s v="29/mar"/>
+          <s v="30/mar"/>
+          <s v="31/mar"/>
+          <s v="01/abr"/>
+          <s v="02/abr"/>
+          <s v="03/abr"/>
+          <s v="04/abr"/>
+          <s v="05/abr"/>
+          <s v="06/abr"/>
+          <s v="07/abr"/>
+          <s v="08/abr"/>
+          <s v="09/abr"/>
+          <s v="10/abr"/>
+          <s v="11/abr"/>
+          <s v="12/abr"/>
+          <s v="13/abr"/>
+          <s v="14/abr"/>
+          <s v="15/abr"/>
+          <s v="16/abr"/>
+          <s v="17/abr"/>
+          <s v="18/abr"/>
+          <s v="19/abr"/>
+          <s v="20/abr"/>
+          <s v="21/abr"/>
+          <s v="22/abr"/>
+          <s v="23/abr"/>
+          <s v="24/abr"/>
+          <s v="25/abr"/>
+          <s v="26/abr"/>
+          <s v="27/abr"/>
+          <s v="28/abr"/>
+          <s v="29/abr"/>
+          <s v="30/abr"/>
+          <s v="01/mai"/>
+          <s v="02/mai"/>
+          <s v="03/mai"/>
+          <s v="04/mai"/>
+          <s v="05/mai"/>
+          <s v="06/mai"/>
+          <s v="07/mai"/>
+          <s v="08/mai"/>
+          <s v="09/mai"/>
+          <s v="10/mai"/>
+          <s v="11/mai"/>
+          <s v="12/mai"/>
+          <s v="13/mai"/>
+          <s v="14/mai"/>
+          <s v="15/mai"/>
+          <s v="16/mai"/>
+          <s v="17/mai"/>
+          <s v="18/mai"/>
+          <s v="19/mai"/>
+          <s v="20/mai"/>
+          <s v="21/mai"/>
+          <s v="22/mai"/>
+          <s v="23/mai"/>
+          <s v="24/mai"/>
+          <s v="25/mai"/>
+          <s v="26/mai"/>
+          <s v="27/mai"/>
+          <s v="28/mai"/>
+          <s v="29/mai"/>
+          <s v="30/mai"/>
+          <s v="31/mai"/>
+          <s v="01/jun"/>
+          <s v="02/jun"/>
+          <s v="03/jun"/>
+          <s v="04/jun"/>
+          <s v="05/jun"/>
+          <s v="06/jun"/>
+          <s v="07/jun"/>
+          <s v="08/jun"/>
+          <s v="09/jun"/>
+          <s v="10/jun"/>
+          <s v="11/jun"/>
+          <s v="12/jun"/>
+          <s v="13/jun"/>
+          <s v="14/jun"/>
+          <s v="15/jun"/>
+          <s v="16/jun"/>
+          <s v="17/jun"/>
+          <s v="18/jun"/>
+          <s v="19/jun"/>
+          <s v="20/jun"/>
+          <s v="21/jun"/>
+          <s v="22/jun"/>
+          <s v="23/jun"/>
+          <s v="24/jun"/>
+          <s v="25/jun"/>
+          <s v="26/jun"/>
+          <s v="27/jun"/>
+          <s v="28/jun"/>
+          <s v="29/jun"/>
+          <s v="30/jun"/>
+          <s v="01/jul"/>
+          <s v="02/jul"/>
+          <s v="03/jul"/>
+          <s v="04/jul"/>
+          <s v="05/jul"/>
+          <s v="06/jul"/>
+          <s v="07/jul"/>
+          <s v="08/jul"/>
+          <s v="09/jul"/>
+          <s v="10/jul"/>
+          <s v="11/jul"/>
+          <s v="12/jul"/>
+          <s v="13/jul"/>
+          <s v="14/jul"/>
+          <s v="15/jul"/>
+          <s v="16/jul"/>
+          <s v="17/jul"/>
+          <s v="18/jul"/>
+          <s v="19/jul"/>
+          <s v="20/jul"/>
+          <s v="21/jul"/>
+          <s v="22/jul"/>
+          <s v="23/jul"/>
+          <s v="24/jul"/>
+          <s v="25/jul"/>
+          <s v="26/jul"/>
+          <s v="27/jul"/>
+          <s v="28/jul"/>
+          <s v="29/jul"/>
+          <s v="30/jul"/>
+          <s v="31/jul"/>
+          <s v="01/ago"/>
+          <s v="02/ago"/>
+          <s v="03/ago"/>
+          <s v="04/ago"/>
+          <s v="05/ago"/>
+          <s v="06/ago"/>
+          <s v="07/ago"/>
+          <s v="08/ago"/>
+          <s v="09/ago"/>
+          <s v="10/ago"/>
+          <s v="11/ago"/>
+          <s v="12/ago"/>
+          <s v="13/ago"/>
+          <s v="14/ago"/>
+          <s v="15/ago"/>
+          <s v="16/ago"/>
+          <s v="17/ago"/>
+          <s v="18/ago"/>
+          <s v="19/ago"/>
+          <s v="20/ago"/>
+          <s v="21/ago"/>
+          <s v="22/ago"/>
+          <s v="23/ago"/>
+          <s v="24/ago"/>
+          <s v="25/ago"/>
+          <s v="26/ago"/>
+          <s v="27/ago"/>
+          <s v="28/ago"/>
+          <s v="29/ago"/>
+          <s v="30/ago"/>
+          <s v="31/ago"/>
+          <s v="01/set"/>
+          <s v="02/set"/>
+          <s v="03/set"/>
+          <s v="04/set"/>
+          <s v="05/set"/>
+          <s v="06/set"/>
+          <s v="07/set"/>
+          <s v="08/set"/>
+          <s v="09/set"/>
+          <s v="10/set"/>
+          <s v="11/set"/>
+          <s v="12/set"/>
+          <s v="13/set"/>
+          <s v="14/set"/>
+          <s v="15/set"/>
+          <s v="16/set"/>
+          <s v="17/set"/>
+          <s v="18/set"/>
+          <s v="19/set"/>
+          <s v="20/set"/>
+          <s v="21/set"/>
+          <s v="22/set"/>
+          <s v="23/set"/>
+          <s v="24/set"/>
+          <s v="25/set"/>
+          <s v="26/set"/>
+          <s v="27/set"/>
+          <s v="28/set"/>
+          <s v="29/set"/>
+          <s v="30/set"/>
+          <s v="01/out"/>
+          <s v="02/out"/>
+          <s v="03/out"/>
+          <s v="04/out"/>
+          <s v="05/out"/>
+          <s v="06/out"/>
+          <s v="07/out"/>
+          <s v="08/out"/>
+          <s v="09/out"/>
+          <s v="10/out"/>
+          <s v="11/out"/>
+          <s v="12/out"/>
+          <s v="13/out"/>
+          <s v="14/out"/>
+          <s v="15/out"/>
+          <s v="16/out"/>
+          <s v="17/out"/>
+          <s v="18/out"/>
+          <s v="19/out"/>
+          <s v="20/out"/>
+          <s v="21/out"/>
+          <s v="22/out"/>
+          <s v="23/out"/>
+          <s v="24/out"/>
+          <s v="25/out"/>
+          <s v="26/out"/>
+          <s v="27/out"/>
+          <s v="28/out"/>
+          <s v="29/out"/>
+          <s v="30/out"/>
+          <s v="31/out"/>
+          <s v="01/nov"/>
+          <s v="02/nov"/>
+          <s v="03/nov"/>
+          <s v="04/nov"/>
+          <s v="05/nov"/>
+          <s v="06/nov"/>
+          <s v="07/nov"/>
+          <s v="08/nov"/>
+          <s v="09/nov"/>
+          <s v="10/nov"/>
+          <s v="11/nov"/>
+          <s v="12/nov"/>
+          <s v="13/nov"/>
+          <s v="14/nov"/>
+          <s v="15/nov"/>
+          <s v="16/nov"/>
+          <s v="17/nov"/>
+          <s v="18/nov"/>
+          <s v="19/nov"/>
+          <s v="20/nov"/>
+          <s v="21/nov"/>
+          <s v="22/nov"/>
+          <s v="23/nov"/>
+          <s v="24/nov"/>
+          <s v="25/nov"/>
+          <s v="26/nov"/>
+          <s v="27/nov"/>
+          <s v="28/nov"/>
+          <s v="29/nov"/>
+          <s v="30/nov"/>
+          <s v="01/dez"/>
+          <s v="02/dez"/>
+          <s v="03/dez"/>
+          <s v="04/dez"/>
+          <s v="05/dez"/>
+          <s v="06/dez"/>
+          <s v="07/dez"/>
+          <s v="08/dez"/>
+          <s v="09/dez"/>
+          <s v="10/dez"/>
+          <s v="11/dez"/>
+          <s v="12/dez"/>
+          <s v="13/dez"/>
+          <s v="14/dez"/>
+          <s v="15/dez"/>
+          <s v="16/dez"/>
+          <s v="17/dez"/>
+          <s v="18/dez"/>
+          <s v="19/dez"/>
+          <s v="20/dez"/>
+          <s v="21/dez"/>
+          <s v="22/dez"/>
+          <s v="23/dez"/>
+          <s v="24/dez"/>
+          <s v="25/dez"/>
+          <s v="26/dez"/>
+          <s v="27/dez"/>
+          <s v="28/dez"/>
+          <s v="29/dez"/>
+          <s v="30/dez"/>
+          <s v="31/dez"/>
+          <s v="&gt;17/12/2024"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Meses (Start Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="3">
+        <rangePr groupBy="months" startDate="2024-01-01T00:00:00" endDate="2024-12-17T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;01/01/2024"/>
+          <s v="jan"/>
+          <s v="fev"/>
+          <s v="mar"/>
+          <s v="abr"/>
+          <s v="mai"/>
+          <s v="jun"/>
+          <s v="jul"/>
+          <s v="ago"/>
+          <s v="set"/>
+          <s v="out"/>
+          <s v="nov"/>
+          <s v="dez"/>
+          <s v="&gt;17/12/2024"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="707725893"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="295">
+  <r>
+    <n v="3231"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3232"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3233"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3234"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3235"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3236"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="2"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <n v="3237"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <n v="3238"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3239"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3240"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3241"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3242"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3243"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3244"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3245"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="8"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <n v="3246"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3247"/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3248"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3249"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3250"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3251"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3252"/>
+    <x v="21"/>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3253"/>
+    <x v="22"/>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3254"/>
+    <x v="23"/>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3255"/>
+    <x v="24"/>
+    <x v="2"/>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3256"/>
+    <x v="25"/>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3257"/>
+    <x v="26"/>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3258"/>
+    <x v="27"/>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3259"/>
+    <x v="28"/>
+    <x v="1"/>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3260"/>
+    <x v="29"/>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3261"/>
+    <x v="30"/>
+    <x v="2"/>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3262"/>
+    <x v="31"/>
+    <x v="1"/>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3263"/>
+    <x v="32"/>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3264"/>
+    <x v="33"/>
+    <x v="2"/>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3265"/>
+    <x v="34"/>
+    <x v="1"/>
+    <x v="33"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3266"/>
+    <x v="35"/>
+    <x v="1"/>
+    <x v="34"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3267"/>
+    <x v="36"/>
+    <x v="0"/>
+    <x v="35"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3268"/>
+    <x v="37"/>
+    <x v="2"/>
+    <x v="36"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3269"/>
+    <x v="38"/>
+    <x v="1"/>
+    <x v="37"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3270"/>
+    <x v="39"/>
+    <x v="0"/>
+    <x v="38"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3271"/>
+    <x v="40"/>
+    <x v="2"/>
+    <x v="39"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3272"/>
+    <x v="41"/>
+    <x v="1"/>
+    <x v="40"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3273"/>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="41"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3274"/>
+    <x v="43"/>
+    <x v="2"/>
+    <x v="42"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3275"/>
+    <x v="44"/>
+    <x v="1"/>
+    <x v="43"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3276"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="44"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3277"/>
+    <x v="46"/>
+    <x v="2"/>
+    <x v="45"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3278"/>
+    <x v="47"/>
+    <x v="1"/>
+    <x v="46"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3279"/>
+    <x v="48"/>
+    <x v="0"/>
+    <x v="47"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3280"/>
+    <x v="49"/>
+    <x v="2"/>
+    <x v="48"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3281"/>
+    <x v="50"/>
+    <x v="1"/>
+    <x v="49"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3282"/>
+    <x v="51"/>
+    <x v="0"/>
+    <x v="50"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3283"/>
+    <x v="52"/>
+    <x v="2"/>
+    <x v="51"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3284"/>
+    <x v="53"/>
+    <x v="1"/>
+    <x v="52"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3285"/>
+    <x v="54"/>
+    <x v="0"/>
+    <x v="53"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3286"/>
+    <x v="55"/>
+    <x v="2"/>
+    <x v="54"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3287"/>
+    <x v="56"/>
+    <x v="1"/>
+    <x v="55"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3288"/>
+    <x v="57"/>
+    <x v="0"/>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3289"/>
+    <x v="58"/>
+    <x v="2"/>
+    <x v="57"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3290"/>
+    <x v="59"/>
+    <x v="1"/>
+    <x v="58"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3291"/>
+    <x v="60"/>
+    <x v="0"/>
+    <x v="59"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3292"/>
+    <x v="61"/>
+    <x v="2"/>
+    <x v="60"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3293"/>
+    <x v="62"/>
+    <x v="1"/>
+    <x v="61"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3294"/>
+    <x v="63"/>
+    <x v="0"/>
+    <x v="62"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3295"/>
+    <x v="64"/>
+    <x v="2"/>
+    <x v="63"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3296"/>
+    <x v="65"/>
+    <x v="1"/>
+    <x v="64"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3297"/>
+    <x v="66"/>
+    <x v="0"/>
+    <x v="65"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3298"/>
+    <x v="67"/>
+    <x v="2"/>
+    <x v="66"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3299"/>
+    <x v="68"/>
+    <x v="1"/>
+    <x v="67"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3300"/>
+    <x v="69"/>
+    <x v="0"/>
+    <x v="68"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3301"/>
+    <x v="70"/>
+    <x v="2"/>
+    <x v="69"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3302"/>
+    <x v="71"/>
+    <x v="1"/>
+    <x v="70"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3303"/>
+    <x v="72"/>
+    <x v="0"/>
+    <x v="71"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3304"/>
+    <x v="73"/>
+    <x v="2"/>
+    <x v="72"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3305"/>
+    <x v="74"/>
+    <x v="1"/>
+    <x v="73"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3306"/>
+    <x v="75"/>
+    <x v="0"/>
+    <x v="74"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3307"/>
+    <x v="76"/>
+    <x v="2"/>
+    <x v="75"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3308"/>
+    <x v="77"/>
+    <x v="1"/>
+    <x v="76"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3309"/>
+    <x v="78"/>
+    <x v="0"/>
+    <x v="77"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3310"/>
+    <x v="79"/>
+    <x v="2"/>
+    <x v="78"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3311"/>
+    <x v="80"/>
+    <x v="1"/>
+    <x v="79"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3312"/>
+    <x v="81"/>
+    <x v="0"/>
+    <x v="80"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3313"/>
+    <x v="82"/>
+    <x v="2"/>
+    <x v="81"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3314"/>
+    <x v="83"/>
+    <x v="1"/>
+    <x v="82"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3315"/>
+    <x v="84"/>
+    <x v="0"/>
+    <x v="83"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3316"/>
+    <x v="85"/>
+    <x v="2"/>
+    <x v="84"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3317"/>
+    <x v="86"/>
+    <x v="1"/>
+    <x v="85"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3318"/>
+    <x v="87"/>
+    <x v="0"/>
+    <x v="86"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3319"/>
+    <x v="88"/>
+    <x v="2"/>
+    <x v="87"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3320"/>
+    <x v="89"/>
+    <x v="1"/>
+    <x v="88"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3321"/>
+    <x v="90"/>
+    <x v="0"/>
+    <x v="89"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3322"/>
+    <x v="91"/>
+    <x v="2"/>
+    <x v="90"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3323"/>
+    <x v="92"/>
+    <x v="1"/>
+    <x v="91"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3324"/>
+    <x v="93"/>
+    <x v="0"/>
+    <x v="92"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3325"/>
+    <x v="94"/>
+    <x v="2"/>
+    <x v="93"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3326"/>
+    <x v="95"/>
+    <x v="1"/>
+    <x v="94"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3327"/>
+    <x v="96"/>
+    <x v="0"/>
+    <x v="95"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3328"/>
+    <x v="97"/>
+    <x v="2"/>
+    <x v="96"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3329"/>
+    <x v="98"/>
+    <x v="1"/>
+    <x v="97"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3330"/>
+    <x v="99"/>
+    <x v="0"/>
+    <x v="98"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3331"/>
+    <x v="100"/>
+    <x v="2"/>
+    <x v="99"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3332"/>
+    <x v="101"/>
+    <x v="1"/>
+    <x v="100"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3333"/>
+    <x v="102"/>
+    <x v="0"/>
+    <x v="101"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3334"/>
+    <x v="103"/>
+    <x v="2"/>
+    <x v="102"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3335"/>
+    <x v="104"/>
+    <x v="1"/>
+    <x v="103"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3336"/>
+    <x v="105"/>
+    <x v="1"/>
+    <x v="104"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3337"/>
+    <x v="106"/>
+    <x v="0"/>
+    <x v="105"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3338"/>
+    <x v="107"/>
+    <x v="2"/>
+    <x v="106"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3339"/>
+    <x v="108"/>
+    <x v="1"/>
+    <x v="107"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3340"/>
+    <x v="109"/>
+    <x v="0"/>
+    <x v="108"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3341"/>
+    <x v="110"/>
+    <x v="2"/>
+    <x v="109"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3342"/>
+    <x v="111"/>
+    <x v="1"/>
+    <x v="110"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3343"/>
+    <x v="112"/>
+    <x v="0"/>
+    <x v="111"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3344"/>
+    <x v="113"/>
+    <x v="2"/>
+    <x v="112"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3345"/>
+    <x v="114"/>
+    <x v="1"/>
+    <x v="113"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3346"/>
+    <x v="115"/>
+    <x v="0"/>
+    <x v="114"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3347"/>
+    <x v="116"/>
+    <x v="2"/>
+    <x v="115"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3348"/>
+    <x v="117"/>
+    <x v="1"/>
+    <x v="116"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3349"/>
+    <x v="93"/>
+    <x v="0"/>
+    <x v="117"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3350"/>
+    <x v="118"/>
+    <x v="2"/>
+    <x v="118"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3351"/>
+    <x v="119"/>
+    <x v="1"/>
+    <x v="119"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3352"/>
+    <x v="120"/>
+    <x v="0"/>
+    <x v="120"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3353"/>
+    <x v="121"/>
+    <x v="2"/>
+    <x v="121"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3354"/>
+    <x v="122"/>
+    <x v="1"/>
+    <x v="122"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3355"/>
+    <x v="123"/>
+    <x v="0"/>
+    <x v="123"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3356"/>
+    <x v="124"/>
+    <x v="2"/>
+    <x v="124"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3357"/>
+    <x v="125"/>
+    <x v="1"/>
+    <x v="125"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3358"/>
+    <x v="126"/>
+    <x v="0"/>
+    <x v="126"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3359"/>
+    <x v="127"/>
+    <x v="2"/>
+    <x v="127"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3360"/>
+    <x v="128"/>
+    <x v="1"/>
+    <x v="128"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3361"/>
+    <x v="129"/>
+    <x v="0"/>
+    <x v="129"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3362"/>
+    <x v="130"/>
+    <x v="2"/>
+    <x v="130"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3363"/>
+    <x v="131"/>
+    <x v="1"/>
+    <x v="131"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3364"/>
+    <x v="132"/>
+    <x v="0"/>
+    <x v="132"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3365"/>
+    <x v="133"/>
+    <x v="2"/>
+    <x v="133"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3366"/>
+    <x v="134"/>
+    <x v="1"/>
+    <x v="134"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3367"/>
+    <x v="135"/>
+    <x v="0"/>
+    <x v="135"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3368"/>
+    <x v="136"/>
+    <x v="2"/>
+    <x v="136"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3369"/>
+    <x v="137"/>
+    <x v="1"/>
+    <x v="137"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3370"/>
+    <x v="138"/>
+    <x v="0"/>
+    <x v="138"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3371"/>
+    <x v="139"/>
+    <x v="2"/>
+    <x v="139"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3372"/>
+    <x v="140"/>
+    <x v="1"/>
+    <x v="140"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3373"/>
+    <x v="141"/>
+    <x v="0"/>
+    <x v="141"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3374"/>
+    <x v="142"/>
+    <x v="2"/>
+    <x v="142"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3375"/>
+    <x v="143"/>
+    <x v="1"/>
+    <x v="143"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3376"/>
+    <x v="144"/>
+    <x v="0"/>
+    <x v="144"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3377"/>
+    <x v="145"/>
+    <x v="2"/>
+    <x v="145"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3378"/>
+    <x v="146"/>
+    <x v="1"/>
+    <x v="146"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3379"/>
+    <x v="147"/>
+    <x v="0"/>
+    <x v="147"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3380"/>
+    <x v="148"/>
+    <x v="2"/>
+    <x v="148"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3381"/>
+    <x v="149"/>
+    <x v="1"/>
+    <x v="149"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3382"/>
+    <x v="150"/>
+    <x v="0"/>
+    <x v="150"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3383"/>
+    <x v="151"/>
+    <x v="2"/>
+    <x v="151"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3384"/>
+    <x v="152"/>
+    <x v="1"/>
+    <x v="152"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3385"/>
+    <x v="153"/>
+    <x v="0"/>
+    <x v="153"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3386"/>
+    <x v="154"/>
+    <x v="2"/>
+    <x v="154"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3387"/>
+    <x v="155"/>
+    <x v="1"/>
+    <x v="155"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3388"/>
+    <x v="156"/>
+    <x v="0"/>
+    <x v="156"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3389"/>
+    <x v="157"/>
+    <x v="2"/>
+    <x v="157"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3390"/>
+    <x v="158"/>
+    <x v="1"/>
+    <x v="158"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3391"/>
+    <x v="58"/>
+    <x v="0"/>
+    <x v="159"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3392"/>
+    <x v="159"/>
+    <x v="2"/>
+    <x v="160"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3393"/>
+    <x v="160"/>
+    <x v="1"/>
+    <x v="161"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3394"/>
+    <x v="161"/>
+    <x v="0"/>
+    <x v="162"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3395"/>
+    <x v="162"/>
+    <x v="2"/>
+    <x v="163"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3396"/>
+    <x v="163"/>
+    <x v="1"/>
+    <x v="164"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3397"/>
+    <x v="90"/>
+    <x v="0"/>
+    <x v="165"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3398"/>
+    <x v="164"/>
+    <x v="2"/>
+    <x v="166"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3399"/>
+    <x v="165"/>
+    <x v="1"/>
+    <x v="167"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3400"/>
+    <x v="166"/>
+    <x v="0"/>
+    <x v="168"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3401"/>
+    <x v="167"/>
+    <x v="2"/>
+    <x v="169"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3402"/>
+    <x v="168"/>
+    <x v="1"/>
+    <x v="170"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3403"/>
+    <x v="169"/>
+    <x v="0"/>
+    <x v="171"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3404"/>
+    <x v="170"/>
+    <x v="2"/>
+    <x v="172"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3405"/>
+    <x v="171"/>
+    <x v="1"/>
+    <x v="173"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3406"/>
+    <x v="172"/>
+    <x v="1"/>
+    <x v="174"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3407"/>
+    <x v="173"/>
+    <x v="0"/>
+    <x v="175"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3408"/>
+    <x v="174"/>
+    <x v="2"/>
+    <x v="176"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3409"/>
+    <x v="175"/>
+    <x v="1"/>
+    <x v="177"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3410"/>
+    <x v="176"/>
+    <x v="0"/>
+    <x v="178"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3411"/>
+    <x v="177"/>
+    <x v="2"/>
+    <x v="179"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3412"/>
+    <x v="178"/>
+    <x v="1"/>
+    <x v="180"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3413"/>
+    <x v="179"/>
+    <x v="0"/>
+    <x v="181"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3414"/>
+    <x v="180"/>
+    <x v="2"/>
+    <x v="182"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3415"/>
+    <x v="181"/>
+    <x v="1"/>
+    <x v="183"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3416"/>
+    <x v="182"/>
+    <x v="0"/>
+    <x v="184"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3417"/>
+    <x v="183"/>
+    <x v="2"/>
+    <x v="185"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3418"/>
+    <x v="184"/>
+    <x v="1"/>
+    <x v="186"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3419"/>
+    <x v="185"/>
+    <x v="0"/>
+    <x v="187"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3420"/>
+    <x v="186"/>
+    <x v="2"/>
+    <x v="188"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3421"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="189"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3422"/>
+    <x v="187"/>
+    <x v="0"/>
+    <x v="190"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3423"/>
+    <x v="188"/>
+    <x v="2"/>
+    <x v="191"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3424"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="192"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3425"/>
+    <x v="189"/>
+    <x v="0"/>
+    <x v="193"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3426"/>
+    <x v="167"/>
+    <x v="2"/>
+    <x v="194"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3427"/>
+    <x v="190"/>
+    <x v="1"/>
+    <x v="195"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3428"/>
+    <x v="191"/>
+    <x v="0"/>
+    <x v="196"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3429"/>
+    <x v="192"/>
+    <x v="2"/>
+    <x v="197"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3430"/>
+    <x v="193"/>
+    <x v="1"/>
+    <x v="198"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3431"/>
+    <x v="194"/>
+    <x v="0"/>
+    <x v="199"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3432"/>
+    <x v="195"/>
+    <x v="2"/>
+    <x v="200"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3433"/>
+    <x v="196"/>
+    <x v="1"/>
+    <x v="201"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3434"/>
+    <x v="197"/>
+    <x v="0"/>
+    <x v="202"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3435"/>
+    <x v="198"/>
+    <x v="2"/>
+    <x v="203"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3436"/>
+    <x v="199"/>
+    <x v="1"/>
+    <x v="204"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3437"/>
+    <x v="200"/>
+    <x v="0"/>
+    <x v="205"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3438"/>
+    <x v="201"/>
+    <x v="2"/>
+    <x v="206"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3439"/>
+    <x v="202"/>
+    <x v="1"/>
+    <x v="207"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3440"/>
+    <x v="203"/>
+    <x v="0"/>
+    <x v="208"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3441"/>
+    <x v="204"/>
+    <x v="2"/>
+    <x v="209"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3442"/>
+    <x v="205"/>
+    <x v="1"/>
+    <x v="210"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3443"/>
+    <x v="206"/>
+    <x v="0"/>
+    <x v="211"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3444"/>
+    <x v="207"/>
+    <x v="2"/>
+    <x v="212"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3445"/>
+    <x v="37"/>
+    <x v="1"/>
+    <x v="213"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3446"/>
+    <x v="208"/>
+    <x v="0"/>
+    <x v="214"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3447"/>
+    <x v="209"/>
+    <x v="2"/>
+    <x v="215"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3448"/>
+    <x v="210"/>
+    <x v="1"/>
+    <x v="216"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3449"/>
+    <x v="211"/>
+    <x v="0"/>
+    <x v="217"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3450"/>
+    <x v="212"/>
+    <x v="2"/>
+    <x v="218"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3451"/>
+    <x v="213"/>
+    <x v="1"/>
+    <x v="219"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3452"/>
+    <x v="191"/>
+    <x v="0"/>
+    <x v="220"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3453"/>
+    <x v="45"/>
+    <x v="2"/>
+    <x v="221"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3454"/>
+    <x v="214"/>
+    <x v="1"/>
+    <x v="222"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3455"/>
+    <x v="215"/>
+    <x v="0"/>
+    <x v="223"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3456"/>
+    <x v="216"/>
+    <x v="2"/>
+    <x v="224"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3457"/>
+    <x v="217"/>
+    <x v="1"/>
+    <x v="225"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3458"/>
+    <x v="218"/>
+    <x v="0"/>
+    <x v="226"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3459"/>
+    <x v="219"/>
+    <x v="2"/>
+    <x v="227"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3460"/>
+    <x v="127"/>
+    <x v="1"/>
+    <x v="228"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3461"/>
+    <x v="220"/>
+    <x v="0"/>
+    <x v="229"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3462"/>
+    <x v="221"/>
+    <x v="2"/>
+    <x v="230"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3463"/>
+    <x v="222"/>
+    <x v="1"/>
+    <x v="231"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3464"/>
+    <x v="223"/>
+    <x v="0"/>
+    <x v="232"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3465"/>
+    <x v="224"/>
+    <x v="2"/>
+    <x v="233"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3466"/>
+    <x v="225"/>
+    <x v="1"/>
+    <x v="234"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3467"/>
+    <x v="226"/>
+    <x v="0"/>
+    <x v="235"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3468"/>
+    <x v="227"/>
+    <x v="2"/>
+    <x v="236"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3469"/>
+    <x v="228"/>
+    <x v="1"/>
+    <x v="237"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3470"/>
+    <x v="229"/>
+    <x v="0"/>
+    <x v="238"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3471"/>
+    <x v="230"/>
+    <x v="2"/>
+    <x v="239"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3472"/>
+    <x v="231"/>
+    <x v="1"/>
+    <x v="240"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3473"/>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="241"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3474"/>
+    <x v="232"/>
+    <x v="2"/>
+    <x v="242"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3475"/>
+    <x v="233"/>
+    <x v="1"/>
+    <x v="243"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3476"/>
+    <x v="234"/>
+    <x v="0"/>
+    <x v="244"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3477"/>
+    <x v="235"/>
+    <x v="2"/>
+    <x v="245"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3478"/>
+    <x v="236"/>
+    <x v="1"/>
+    <x v="246"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3479"/>
+    <x v="237"/>
+    <x v="0"/>
+    <x v="247"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3480"/>
+    <x v="238"/>
+    <x v="2"/>
+    <x v="248"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3481"/>
+    <x v="239"/>
+    <x v="1"/>
+    <x v="249"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3482"/>
+    <x v="240"/>
+    <x v="0"/>
+    <x v="250"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3483"/>
+    <x v="241"/>
+    <x v="2"/>
+    <x v="251"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3484"/>
+    <x v="242"/>
+    <x v="1"/>
+    <x v="252"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3485"/>
+    <x v="243"/>
+    <x v="0"/>
+    <x v="253"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3486"/>
+    <x v="244"/>
+    <x v="1"/>
+    <x v="254"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3487"/>
+    <x v="245"/>
+    <x v="0"/>
+    <x v="255"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3488"/>
+    <x v="246"/>
+    <x v="2"/>
+    <x v="256"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3489"/>
+    <x v="247"/>
+    <x v="1"/>
+    <x v="257"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3490"/>
+    <x v="248"/>
+    <x v="0"/>
+    <x v="258"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3491"/>
+    <x v="249"/>
+    <x v="2"/>
+    <x v="259"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3492"/>
+    <x v="250"/>
+    <x v="1"/>
+    <x v="260"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3493"/>
+    <x v="251"/>
+    <x v="0"/>
+    <x v="261"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3494"/>
+    <x v="252"/>
+    <x v="2"/>
+    <x v="262"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3495"/>
+    <x v="253"/>
+    <x v="1"/>
+    <x v="263"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3496"/>
+    <x v="254"/>
+    <x v="0"/>
+    <x v="264"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3497"/>
+    <x v="255"/>
+    <x v="2"/>
+    <x v="265"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3498"/>
+    <x v="256"/>
+    <x v="1"/>
+    <x v="266"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3499"/>
+    <x v="257"/>
+    <x v="0"/>
+    <x v="267"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3500"/>
+    <x v="258"/>
+    <x v="2"/>
+    <x v="268"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3501"/>
+    <x v="259"/>
+    <x v="1"/>
+    <x v="269"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3502"/>
+    <x v="260"/>
+    <x v="0"/>
+    <x v="270"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3503"/>
+    <x v="119"/>
+    <x v="2"/>
+    <x v="271"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3504"/>
+    <x v="261"/>
+    <x v="1"/>
+    <x v="272"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3505"/>
+    <x v="262"/>
+    <x v="0"/>
+    <x v="273"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3506"/>
+    <x v="263"/>
+    <x v="2"/>
+    <x v="274"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3507"/>
+    <x v="264"/>
+    <x v="1"/>
+    <x v="275"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3508"/>
+    <x v="265"/>
+    <x v="0"/>
+    <x v="276"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3509"/>
+    <x v="266"/>
+    <x v="2"/>
+    <x v="277"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3510"/>
+    <x v="267"/>
+    <x v="1"/>
+    <x v="278"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3511"/>
+    <x v="268"/>
+    <x v="0"/>
+    <x v="279"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3512"/>
+    <x v="269"/>
+    <x v="2"/>
+    <x v="280"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3513"/>
+    <x v="270"/>
+    <x v="1"/>
+    <x v="281"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3514"/>
+    <x v="271"/>
+    <x v="0"/>
+    <x v="282"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3515"/>
+    <x v="130"/>
+    <x v="2"/>
+    <x v="283"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3516"/>
+    <x v="131"/>
+    <x v="1"/>
+    <x v="284"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3517"/>
+    <x v="181"/>
+    <x v="0"/>
+    <x v="285"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3518"/>
+    <x v="272"/>
+    <x v="2"/>
+    <x v="286"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3519"/>
+    <x v="273"/>
+    <x v="1"/>
+    <x v="287"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3520"/>
+    <x v="274"/>
+    <x v="0"/>
+    <x v="288"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3521"/>
+    <x v="275"/>
+    <x v="2"/>
+    <x v="289"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3522"/>
+    <x v="276"/>
+    <x v="1"/>
+    <x v="290"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3523"/>
+    <x v="277"/>
+    <x v="0"/>
+    <x v="291"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3524"/>
+    <x v="278"/>
+    <x v="2"/>
+    <x v="292"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3525"/>
+    <x v="279"/>
+    <x v="1"/>
+    <x v="293"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01A91428-B94A-4264-A080-8DCB3D86898E}" name="Tabela dinâmica1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="C5:D17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="281">
+        <item x="87"/>
+        <item x="61"/>
+        <item x="206"/>
+        <item x="275"/>
+        <item x="112"/>
+        <item x="228"/>
+        <item x="35"/>
+        <item x="253"/>
+        <item x="136"/>
+        <item x="3"/>
+        <item x="161"/>
+        <item x="185"/>
+        <item x="7"/>
+        <item x="88"/>
+        <item x="16"/>
+        <item x="186"/>
+        <item x="162"/>
+        <item x="276"/>
+        <item x="36"/>
+        <item x="254"/>
+        <item x="207"/>
+        <item x="137"/>
+        <item x="62"/>
+        <item x="9"/>
+        <item x="113"/>
+        <item x="229"/>
+        <item x="163"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="63"/>
+        <item x="37"/>
+        <item x="230"/>
+        <item x="255"/>
+        <item x="277"/>
+        <item x="138"/>
+        <item x="89"/>
+        <item x="114"/>
+        <item x="17"/>
+        <item x="187"/>
+        <item x="90"/>
+        <item x="139"/>
+        <item x="18"/>
+        <item x="38"/>
+        <item x="64"/>
+        <item x="231"/>
+        <item x="208"/>
+        <item x="256"/>
+        <item x="278"/>
+        <item x="13"/>
+        <item x="115"/>
+        <item x="164"/>
+        <item x="91"/>
+        <item x="188"/>
+        <item x="19"/>
+        <item x="209"/>
+        <item x="116"/>
+        <item x="257"/>
+        <item x="279"/>
+        <item x="140"/>
+        <item x="65"/>
+        <item x="39"/>
+        <item x="92"/>
+        <item x="210"/>
+        <item x="141"/>
+        <item x="232"/>
+        <item x="258"/>
+        <item x="40"/>
+        <item x="66"/>
+        <item x="117"/>
+        <item x="5"/>
+        <item x="165"/>
+        <item x="14"/>
+        <item x="67"/>
+        <item x="211"/>
+        <item x="189"/>
+        <item x="259"/>
+        <item x="20"/>
+        <item x="93"/>
+        <item x="233"/>
+        <item x="41"/>
+        <item x="142"/>
+        <item x="166"/>
+        <item x="143"/>
+        <item x="94"/>
+        <item x="212"/>
+        <item x="167"/>
+        <item x="68"/>
+        <item x="42"/>
+        <item x="234"/>
+        <item x="118"/>
+        <item x="21"/>
+        <item x="260"/>
+        <item x="144"/>
+        <item x="190"/>
+        <item x="213"/>
+        <item x="168"/>
+        <item x="43"/>
+        <item x="235"/>
+        <item x="119"/>
+        <item x="95"/>
+        <item x="22"/>
+        <item x="69"/>
+        <item x="145"/>
+        <item x="191"/>
+        <item x="169"/>
+        <item x="120"/>
+        <item x="261"/>
+        <item x="96"/>
+        <item x="236"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="44"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="97"/>
+        <item x="170"/>
+        <item x="262"/>
+        <item x="237"/>
+        <item x="146"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="121"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="192"/>
+        <item x="72"/>
+        <item x="263"/>
+        <item x="171"/>
+        <item x="238"/>
+        <item x="46"/>
+        <item x="98"/>
+        <item x="214"/>
+        <item x="147"/>
+        <item x="193"/>
+        <item x="264"/>
+        <item x="99"/>
+        <item x="172"/>
+        <item x="47"/>
+        <item x="122"/>
+        <item x="11"/>
+        <item x="239"/>
+        <item x="148"/>
+        <item x="215"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="73"/>
+        <item x="123"/>
+        <item x="216"/>
+        <item x="265"/>
+        <item x="149"/>
+        <item x="240"/>
+        <item x="194"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="173"/>
+        <item x="100"/>
+        <item x="74"/>
+        <item x="195"/>
+        <item x="174"/>
+        <item x="124"/>
+        <item x="241"/>
+        <item x="266"/>
+        <item x="49"/>
+        <item x="101"/>
+        <item x="150"/>
+        <item x="217"/>
+        <item x="75"/>
+        <item x="27"/>
+        <item x="151"/>
+        <item x="102"/>
+        <item x="218"/>
+        <item x="242"/>
+        <item x="267"/>
+        <item x="125"/>
+        <item x="50"/>
+        <item x="28"/>
+        <item x="76"/>
+        <item x="196"/>
+        <item x="175"/>
+        <item x="4"/>
+        <item x="126"/>
+        <item x="219"/>
+        <item x="268"/>
+        <item x="77"/>
+        <item x="51"/>
+        <item x="152"/>
+        <item x="243"/>
+        <item x="127"/>
+        <item x="103"/>
+        <item x="244"/>
+        <item x="29"/>
+        <item x="197"/>
+        <item x="176"/>
+        <item x="78"/>
+        <item x="269"/>
+        <item x="52"/>
+        <item x="153"/>
+        <item x="10"/>
+        <item x="79"/>
+        <item x="104"/>
+        <item x="30"/>
+        <item x="177"/>
+        <item x="220"/>
+        <item x="245"/>
+        <item x="270"/>
+        <item x="128"/>
+        <item x="8"/>
+        <item x="154"/>
+        <item x="198"/>
+        <item x="53"/>
+        <item x="31"/>
+        <item x="271"/>
+        <item x="246"/>
+        <item x="105"/>
+        <item x="178"/>
+        <item x="221"/>
+        <item x="80"/>
+        <item x="129"/>
+        <item x="155"/>
+        <item x="54"/>
+        <item x="199"/>
+        <item x="247"/>
+        <item x="55"/>
+        <item x="106"/>
+        <item x="179"/>
+        <item x="81"/>
+        <item x="156"/>
+        <item x="222"/>
+        <item x="200"/>
+        <item x="130"/>
+        <item x="248"/>
+        <item x="56"/>
+        <item x="223"/>
+        <item x="157"/>
+        <item x="131"/>
+        <item x="180"/>
+        <item x="201"/>
+        <item x="82"/>
+        <item x="107"/>
+        <item x="32"/>
+        <item x="158"/>
+        <item x="132"/>
+        <item x="202"/>
+        <item x="83"/>
+        <item x="181"/>
+        <item x="224"/>
+        <item x="249"/>
+        <item x="57"/>
+        <item x="108"/>
+        <item x="203"/>
+        <item x="133"/>
+        <item x="225"/>
+        <item x="109"/>
+        <item x="272"/>
+        <item x="182"/>
+        <item x="84"/>
+        <item x="250"/>
+        <item x="58"/>
+        <item x="110"/>
+        <item x="59"/>
+        <item x="183"/>
+        <item x="226"/>
+        <item x="85"/>
+        <item x="273"/>
+        <item x="159"/>
+        <item x="33"/>
+        <item x="204"/>
+        <item x="251"/>
+        <item x="134"/>
+        <item x="205"/>
+        <item x="60"/>
+        <item x="184"/>
+        <item x="160"/>
+        <item x="274"/>
+        <item x="227"/>
+        <item x="135"/>
+        <item x="86"/>
+        <item x="34"/>
+        <item x="252"/>
+        <item x="111"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="295">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="369">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="115"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="117"/>
+        <item sd="0" x="118"/>
+        <item sd="0" x="119"/>
+        <item sd="0" x="120"/>
+        <item sd="0" x="121"/>
+        <item sd="0" x="122"/>
+        <item sd="0" x="123"/>
+        <item sd="0" x="124"/>
+        <item sd="0" x="125"/>
+        <item sd="0" x="126"/>
+        <item sd="0" x="127"/>
+        <item sd="0" x="128"/>
+        <item sd="0" x="129"/>
+        <item sd="0" x="130"/>
+        <item sd="0" x="131"/>
+        <item sd="0" x="132"/>
+        <item sd="0" x="133"/>
+        <item sd="0" x="134"/>
+        <item sd="0" x="135"/>
+        <item sd="0" x="136"/>
+        <item sd="0" x="137"/>
+        <item sd="0" x="138"/>
+        <item sd="0" x="139"/>
+        <item sd="0" x="140"/>
+        <item sd="0" x="141"/>
+        <item sd="0" x="142"/>
+        <item sd="0" x="143"/>
+        <item sd="0" x="144"/>
+        <item sd="0" x="145"/>
+        <item sd="0" x="146"/>
+        <item sd="0" x="147"/>
+        <item sd="0" x="148"/>
+        <item sd="0" x="149"/>
+        <item sd="0" x="150"/>
+        <item sd="0" x="151"/>
+        <item sd="0" x="152"/>
+        <item sd="0" x="153"/>
+        <item sd="0" x="154"/>
+        <item sd="0" x="155"/>
+        <item sd="0" x="156"/>
+        <item sd="0" x="157"/>
+        <item sd="0" x="158"/>
+        <item sd="0" x="159"/>
+        <item sd="0" x="160"/>
+        <item sd="0" x="161"/>
+        <item sd="0" x="162"/>
+        <item sd="0" x="163"/>
+        <item sd="0" x="164"/>
+        <item sd="0" x="165"/>
+        <item sd="0" x="166"/>
+        <item sd="0" x="167"/>
+        <item sd="0" x="168"/>
+        <item sd="0" x="169"/>
+        <item sd="0" x="170"/>
+        <item sd="0" x="171"/>
+        <item sd="0" x="172"/>
+        <item sd="0" x="173"/>
+        <item sd="0" x="174"/>
+        <item sd="0" x="175"/>
+        <item sd="0" x="176"/>
+        <item sd="0" x="177"/>
+        <item sd="0" x="178"/>
+        <item sd="0" x="179"/>
+        <item sd="0" x="180"/>
+        <item sd="0" x="181"/>
+        <item sd="0" x="182"/>
+        <item sd="0" x="183"/>
+        <item sd="0" x="184"/>
+        <item sd="0" x="185"/>
+        <item sd="0" x="186"/>
+        <item sd="0" x="187"/>
+        <item sd="0" x="188"/>
+        <item sd="0" x="189"/>
+        <item sd="0" x="190"/>
+        <item sd="0" x="191"/>
+        <item sd="0" x="192"/>
+        <item sd="0" x="193"/>
+        <item sd="0" x="194"/>
+        <item sd="0" x="195"/>
+        <item sd="0" x="196"/>
+        <item sd="0" x="197"/>
+        <item sd="0" x="198"/>
+        <item sd="0" x="199"/>
+        <item sd="0" x="200"/>
+        <item sd="0" x="201"/>
+        <item sd="0" x="202"/>
+        <item sd="0" x="203"/>
+        <item sd="0" x="204"/>
+        <item sd="0" x="205"/>
+        <item sd="0" x="206"/>
+        <item sd="0" x="207"/>
+        <item sd="0" x="208"/>
+        <item sd="0" x="209"/>
+        <item sd="0" x="210"/>
+        <item sd="0" x="211"/>
+        <item sd="0" x="212"/>
+        <item sd="0" x="213"/>
+        <item sd="0" x="214"/>
+        <item sd="0" x="215"/>
+        <item sd="0" x="216"/>
+        <item sd="0" x="217"/>
+        <item sd="0" x="218"/>
+        <item sd="0" x="219"/>
+        <item sd="0" x="220"/>
+        <item sd="0" x="221"/>
+        <item sd="0" x="222"/>
+        <item sd="0" x="223"/>
+        <item sd="0" x="224"/>
+        <item sd="0" x="225"/>
+        <item sd="0" x="226"/>
+        <item sd="0" x="227"/>
+        <item sd="0" x="228"/>
+        <item sd="0" x="229"/>
+        <item sd="0" x="230"/>
+        <item sd="0" x="231"/>
+        <item sd="0" x="232"/>
+        <item sd="0" x="233"/>
+        <item sd="0" x="234"/>
+        <item sd="0" x="235"/>
+        <item sd="0" x="236"/>
+        <item sd="0" x="237"/>
+        <item sd="0" x="238"/>
+        <item sd="0" x="239"/>
+        <item sd="0" x="240"/>
+        <item sd="0" x="241"/>
+        <item sd="0" x="242"/>
+        <item sd="0" x="243"/>
+        <item sd="0" x="244"/>
+        <item sd="0" x="245"/>
+        <item sd="0" x="246"/>
+        <item sd="0" x="247"/>
+        <item sd="0" x="248"/>
+        <item sd="0" x="249"/>
+        <item sd="0" x="250"/>
+        <item sd="0" x="251"/>
+        <item sd="0" x="252"/>
+        <item sd="0" x="253"/>
+        <item sd="0" x="254"/>
+        <item sd="0" x="255"/>
+        <item sd="0" x="256"/>
+        <item sd="0" x="257"/>
+        <item sd="0" x="258"/>
+        <item sd="0" x="259"/>
+        <item sd="0" x="260"/>
+        <item sd="0" x="261"/>
+        <item sd="0" x="262"/>
+        <item sd="0" x="263"/>
+        <item sd="0" x="264"/>
+        <item sd="0" x="265"/>
+        <item sd="0" x="266"/>
+        <item sd="0" x="267"/>
+        <item sd="0" x="268"/>
+        <item sd="0" x="269"/>
+        <item sd="0" x="270"/>
+        <item sd="0" x="271"/>
+        <item sd="0" x="272"/>
+        <item sd="0" x="273"/>
+        <item sd="0" x="274"/>
+        <item sd="0" x="275"/>
+        <item sd="0" x="276"/>
+        <item sd="0" x="277"/>
+        <item sd="0" x="278"/>
+        <item sd="0" x="279"/>
+        <item sd="0" x="280"/>
+        <item sd="0" x="281"/>
+        <item sd="0" x="282"/>
+        <item sd="0" x="283"/>
+        <item sd="0" x="284"/>
+        <item sd="0" x="285"/>
+        <item sd="0" x="286"/>
+        <item sd="0" x="287"/>
+        <item sd="0" x="288"/>
+        <item sd="0" x="289"/>
+        <item sd="0" x="290"/>
+        <item sd="0" x="291"/>
+        <item sd="0" x="292"/>
+        <item sd="0" x="293"/>
+        <item sd="0" x="294"/>
+        <item sd="0" x="295"/>
+        <item sd="0" x="296"/>
+        <item sd="0" x="297"/>
+        <item sd="0" x="298"/>
+        <item sd="0" x="299"/>
+        <item sd="0" x="300"/>
+        <item sd="0" x="301"/>
+        <item sd="0" x="302"/>
+        <item sd="0" x="303"/>
+        <item sd="0" x="304"/>
+        <item sd="0" x="305"/>
+        <item sd="0" x="306"/>
+        <item sd="0" x="307"/>
+        <item sd="0" x="308"/>
+        <item sd="0" x="309"/>
+        <item sd="0" x="310"/>
+        <item sd="0" x="311"/>
+        <item sd="0" x="312"/>
+        <item sd="0" x="313"/>
+        <item sd="0" x="314"/>
+        <item sd="0" x="315"/>
+        <item sd="0" x="316"/>
+        <item sd="0" x="317"/>
+        <item sd="0" x="318"/>
+        <item sd="0" x="319"/>
+        <item sd="0" x="320"/>
+        <item sd="0" x="321"/>
+        <item sd="0" x="322"/>
+        <item sd="0" x="323"/>
+        <item sd="0" x="324"/>
+        <item sd="0" x="325"/>
+        <item sd="0" x="326"/>
+        <item sd="0" x="327"/>
+        <item sd="0" x="328"/>
+        <item sd="0" x="329"/>
+        <item sd="0" x="330"/>
+        <item sd="0" x="331"/>
+        <item sd="0" x="332"/>
+        <item sd="0" x="333"/>
+        <item sd="0" x="334"/>
+        <item sd="0" x="335"/>
+        <item sd="0" x="336"/>
+        <item sd="0" x="337"/>
+        <item sd="0" x="338"/>
+        <item sd="0" x="339"/>
+        <item sd="0" x="340"/>
+        <item sd="0" x="341"/>
+        <item sd="0" x="342"/>
+        <item sd="0" x="343"/>
+        <item sd="0" x="344"/>
+        <item sd="0" x="345"/>
+        <item sd="0" x="346"/>
+        <item sd="0" x="347"/>
+        <item sd="0" x="348"/>
+        <item sd="0" x="349"/>
+        <item sd="0" x="350"/>
+        <item sd="0" x="351"/>
+        <item sd="0" x="352"/>
+        <item sd="0" x="353"/>
+        <item sd="0" x="354"/>
+        <item sd="0" x="355"/>
+        <item sd="0" x="356"/>
+        <item sd="0" x="357"/>
+        <item sd="0" x="358"/>
+        <item sd="0" x="359"/>
+        <item sd="0" x="360"/>
+        <item sd="0" x="361"/>
+        <item sd="0" x="362"/>
+        <item sd="0" x="363"/>
+        <item sd="0" x="364"/>
+        <item sd="0" x="365"/>
+        <item sd="0" x="366"/>
+        <item sd="0" x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="14"/>
+    <field x="13"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleDark14" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Plan" xr10:uid="{6EF48D0C-D87C-4D97-AACD-E9BADE35D54C}" sourceName="Plan">
+  <pivotTables>
+    <pivotTable tabId="3" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="707725893">
+      <items count="3">
+        <i x="1" s="1"/>
+        <i x="2"/>
+        <i x="0"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Plan" xr10:uid="{02DFCE2C-75F7-431B-AD8F-3C5AF5BB460E}" cache="SegmentaçãodeDados_Plan" caption="Plan" style="SlicerStyleDark3" rowHeight="257175"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}">
     <filterColumn colId="7">
       <filters>
@@ -1958,19 +9696,19 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="15" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="12" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="10" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="9" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="8" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="7" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="0" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2298,7 +10036,7 @@
   </sheetPr>
   <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -2471,7 +10209,7 @@
   </sheetPr>
   <dimension ref="A1:M296"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I294"/>
     </sheetView>
   </sheetViews>
@@ -14642,17 +22380,17 @@
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="C5:D17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" customWidth="1"/>
@@ -14662,9 +22400,121 @@
     <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" s="14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" s="14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" s="14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D14" s="14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" s="14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D17" s="14">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14672,8 +22522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
   <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14691,10 +22541,31 @@
     <row r="7" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -14949,34 +22820,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/vendas xbox.xlsx
+++ b/vendas xbox.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Castro\Desktop\vendas_xbox-dio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E517699-D58E-407C-BA63-EE1CC84C2912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E2150C-4F20-473F-874E-DDC38B70BADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
     <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,20 @@
     <sheet name="D̳ashboard" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="SegmentaçãodeDados_EA_Play_Season_Pass">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Minecraft_Season_Pass">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Plan">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
         <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -53,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="328">
   <si>
     <t>Paleta de Cores</t>
   </si>
@@ -1035,6 +1039,9 @@
   </si>
   <si>
     <t>dez</t>
+  </si>
+  <si>
+    <t>fev</t>
   </si>
 </sst>
 </file>
@@ -1268,29 +1275,86 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:alpha val="70000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
           <c:size val="6"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:alpha val="70000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
         </c:marker>
         <c:dLbl>
@@ -1311,9 +1375,8 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1367,15 +1430,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:alpha val="70000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1395,9 +1485,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1422,9 +1511,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -1436,40 +1525,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>C̳álculos!$C$6:$C$17</c:f>
+              <c:f>C̳álculos!$C$6:$C$18</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>jan</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>fev</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>mar</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>abr</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>mai</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>jun</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>jul</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ago</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>set</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>out</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>nov</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>dez</c:v>
                 </c:pt>
               </c:strCache>
@@ -1477,42 +1569,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>C̳álculos!$D$6:$D$17</c:f>
+              <c:f>C̳álculos!$D$6:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>782</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49</c:v>
+                  <c:v>784</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44</c:v>
+                  <c:v>787</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>832</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26</c:v>
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,8 +1626,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="80"/>
-        <c:overlap val="25"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="1493735007"/>
         <c:axId val="1493736927"/>
       </c:barChart>
@@ -1549,11 +1644,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1565,11 +1660,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1598,9 +1692,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1624,11 +1718,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1663,17 +1756,28 @@
     </c:extLst>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1717,43 +1821,41 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1761,29 +1863,36 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1793,14 +1902,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1810,73 +1919,60 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="70000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="70000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="70000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -1884,10 +1980,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1903,17 +1999,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1925,7 +2020,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1936,9 +2031,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1949,17 +2044,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1968,14 +2063,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1987,7 +2081,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1995,14 +2089,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2014,14 +2108,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2032,17 +2126,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2051,14 +2145,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2069,27 +2163,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2097,11 +2190,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2109,14 +2212,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2127,13 +2230,20 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2142,10 +2252,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="15875" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2157,9 +2267,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2169,7 +2278,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2177,9 +2286,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2190,19 +2299,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -2953,13 +3061,13 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1676399</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Plan">
@@ -2982,7 +3090,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3028,16 +3136,94 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>511968</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="EA Play Season Pass">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47121F06-D06E-506D-2E14-EB9A0FF6D675}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="EA Play Season Pass"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9203531" y="2333625"/>
+              <a:ext cx="5548313" cy="2559843"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>107156</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>277415</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
@@ -3066,23 +3252,101 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>369094</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>488155</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11905</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="Minecraft Season Pass">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D06EFD-67D7-E10F-7666-AEF2EF954ED7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Minecraft Season Pass"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9179718" y="71437"/>
+              <a:ext cx="5595937" cy="2226468"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>281828</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>105034</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
+        <xdr:cNvPr id="11" name="Imagem 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD162609-B8D1-4771-82BB-E2683C51D73F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E9CB30-F038-6A4A-678F-4B703D0A2F4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3098,8 +3362,163 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4369594" y="571500"/>
-          <a:ext cx="2488406" cy="726281"/>
+          <a:off x="9024938" y="3036092"/>
+          <a:ext cx="6020640" cy="1867161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>297656</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Agrupar 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC52FEB-66CD-42F5-A059-EF2E0DC17F44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10167938" y="1131094"/>
+          <a:ext cx="3679031" cy="752476"/>
+          <a:chOff x="3495675" y="5400674"/>
+          <a:chExt cx="1549476" cy="752476"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="Imagem 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E03CFD-7C55-B0DA-381C-F93DA539E5AC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3998608" y="5400674"/>
+            <a:ext cx="555497" cy="609599"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="Gráfico 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D02EFADA-D6FC-6185-88FF-7098CDFCC250}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3495675" y="5895937"/>
+            <a:ext cx="1549476" cy="257213"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED67C6A-3158-4C40-91D1-DC5C9B0D3AF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3559969" y="47626"/>
+          <a:ext cx="3369468" cy="1022223"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3727,16 +4146,28 @@
       </sharedItems>
     </cacheField>
     <cacheField name="EA Play Season Pass" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="Yes"/>
+        <s v="No"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="EA Play Season Pass_x000a_Price" numFmtId="44">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="30" maxValue="30"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="30" maxValue="30" count="2">
+        <n v="30"/>
+        <s v="-"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Minecraft Season Pass" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="Yes"/>
+        <s v="No"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Minecraft Season Pass Price" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20" count="2">
+        <n v="20"/>
+        <n v="0"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Coupon Value" numFmtId="44">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
@@ -4159,10 +4590,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="60"/>
   </r>
@@ -4174,10 +4605,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -4189,10 +4620,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -4204,10 +4635,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -4219,10 +4650,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -4234,10 +4665,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="2"/>
     <n v="28"/>
   </r>
@@ -4249,10 +4680,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="55"/>
   </r>
@@ -4264,10 +4695,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -4279,10 +4710,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="60"/>
   </r>
@@ -4294,10 +4725,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -4309,10 +4740,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -4324,10 +4755,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -4339,10 +4770,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -4354,10 +4785,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -4369,10 +4800,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="8"/>
     <n v="57"/>
   </r>
@@ -4384,10 +4815,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="12"/>
     <n v="18"/>
   </r>
@@ -4399,10 +4830,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="2"/>
     <n v="3"/>
   </r>
@@ -4414,10 +4845,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -4429,10 +4860,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="25"/>
   </r>
@@ -4444,10 +4875,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -4459,10 +4890,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -4474,10 +4905,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -4489,10 +4920,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -4504,10 +4935,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -4519,10 +4950,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -4534,10 +4965,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -4549,10 +4980,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="60"/>
   </r>
@@ -4564,10 +4995,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -4579,10 +5010,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -4594,10 +5025,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -4609,10 +5040,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -4624,10 +5055,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -4639,10 +5070,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -4654,10 +5085,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -4669,10 +5100,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -4684,10 +5115,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -4699,10 +5130,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -4714,10 +5145,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -4729,10 +5160,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -4744,10 +5175,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="50"/>
   </r>
@@ -4759,10 +5190,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="25"/>
   </r>
@@ -4774,10 +5205,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -4789,10 +5220,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -4804,10 +5235,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="12"/>
     <n v="18"/>
   </r>
@@ -4819,10 +5250,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="2"/>
     <n v="3"/>
   </r>
@@ -4834,10 +5265,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="60"/>
   </r>
@@ -4849,10 +5280,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -4864,10 +5295,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -4879,10 +5310,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -4894,10 +5325,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -4909,10 +5340,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -4924,10 +5355,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -4939,10 +5370,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -4954,10 +5385,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -4969,10 +5400,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -4984,10 +5415,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -4999,10 +5430,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -5014,10 +5445,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -5029,10 +5460,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -5044,10 +5475,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -5059,10 +5490,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="60"/>
   </r>
@@ -5074,10 +5505,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -5089,10 +5520,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -5104,10 +5535,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -5119,10 +5550,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="25"/>
   </r>
@@ -5134,10 +5565,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -5149,10 +5580,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -5164,10 +5595,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -5179,10 +5610,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -5194,10 +5625,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="50"/>
   </r>
@@ -5209,10 +5640,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="25"/>
   </r>
@@ -5224,10 +5655,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -5239,10 +5670,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -5254,10 +5685,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="12"/>
     <n v="18"/>
   </r>
@@ -5269,10 +5700,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="2"/>
     <n v="3"/>
   </r>
@@ -5284,10 +5715,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="60"/>
   </r>
@@ -5299,10 +5730,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -5314,10 +5745,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -5329,10 +5760,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -5344,10 +5775,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -5359,10 +5790,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -5374,10 +5805,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -5389,10 +5820,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -5404,10 +5835,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -5419,10 +5850,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -5434,10 +5865,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -5449,10 +5880,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -5464,10 +5895,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -5479,10 +5910,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -5494,10 +5925,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -5509,10 +5940,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="60"/>
   </r>
@@ -5524,10 +5955,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -5539,10 +5970,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -5554,10 +5985,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -5569,10 +6000,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -5584,10 +6015,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -5599,10 +6030,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -5614,10 +6045,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -5629,10 +6060,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -5644,10 +6075,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="50"/>
   </r>
@@ -5659,10 +6090,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="25"/>
   </r>
@@ -5674,10 +6105,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -5689,10 +6120,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -5704,10 +6135,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="12"/>
     <n v="18"/>
   </r>
@@ -5719,10 +6150,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="2"/>
     <n v="3"/>
   </r>
@@ -5734,10 +6165,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -5749,10 +6180,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -5764,10 +6195,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -5779,10 +6210,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -5794,10 +6225,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="50"/>
   </r>
@@ -5809,10 +6240,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="25"/>
   </r>
@@ -5824,10 +6255,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -5839,10 +6270,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -5854,10 +6285,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="12"/>
     <n v="18"/>
   </r>
@@ -5869,10 +6300,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="2"/>
     <n v="3"/>
   </r>
@@ -5884,10 +6315,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="60"/>
   </r>
@@ -5899,10 +6330,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -5914,10 +6345,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -5929,10 +6360,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -5944,10 +6375,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -5959,10 +6390,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -5974,10 +6405,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -5989,10 +6420,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -6004,10 +6435,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -6019,10 +6450,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -6034,10 +6465,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -6049,10 +6480,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -6064,10 +6495,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -6079,10 +6510,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -6094,10 +6525,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -6109,10 +6540,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="50"/>
   </r>
@@ -6124,10 +6555,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -6139,10 +6570,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -6154,10 +6585,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -6169,10 +6600,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -6184,10 +6615,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -6199,10 +6630,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -6214,10 +6645,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -6229,10 +6660,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -6244,10 +6675,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="50"/>
   </r>
@@ -6259,10 +6690,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="25"/>
   </r>
@@ -6274,10 +6705,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -6289,10 +6720,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -6304,10 +6735,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="12"/>
     <n v="18"/>
   </r>
@@ -6319,10 +6750,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="2"/>
     <n v="3"/>
   </r>
@@ -6334,10 +6765,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="60"/>
   </r>
@@ -6349,10 +6780,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -6364,10 +6795,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -6379,10 +6810,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -6394,10 +6825,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -6409,10 +6840,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -6424,10 +6855,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -6439,10 +6870,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -6454,10 +6885,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -6469,10 +6900,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -6484,10 +6915,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -6499,10 +6930,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -6514,10 +6945,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -6529,10 +6960,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -6544,10 +6975,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -6559,10 +6990,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="50"/>
   </r>
@@ -6574,10 +7005,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -6589,10 +7020,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -6604,10 +7035,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -6619,10 +7050,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -6634,10 +7065,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -6649,10 +7080,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -6664,10 +7095,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -6679,10 +7110,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -6694,10 +7125,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="60"/>
   </r>
@@ -6709,10 +7140,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -6724,10 +7155,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -6739,10 +7170,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -6754,10 +7185,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -6769,10 +7200,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -6784,10 +7215,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -6799,10 +7230,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -6814,10 +7245,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -6829,10 +7260,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -6844,10 +7275,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="50"/>
   </r>
@@ -6859,10 +7290,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="25"/>
   </r>
@@ -6874,10 +7305,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -6889,10 +7320,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -6904,10 +7335,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="12"/>
     <n v="18"/>
   </r>
@@ -6919,10 +7350,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="2"/>
     <n v="3"/>
   </r>
@@ -6934,10 +7365,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="60"/>
   </r>
@@ -6949,10 +7380,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -6964,10 +7395,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -6979,10 +7410,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -6994,10 +7425,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -7009,10 +7440,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -7024,10 +7455,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -7039,10 +7470,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -7054,10 +7485,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -7069,10 +7500,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -7084,10 +7515,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -7099,10 +7530,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -7114,10 +7545,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -7129,10 +7560,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -7144,10 +7575,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -7159,10 +7590,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="50"/>
   </r>
@@ -7174,10 +7605,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -7189,10 +7620,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -7204,10 +7635,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -7219,10 +7650,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -7234,10 +7665,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -7249,10 +7680,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -7264,10 +7695,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -7279,10 +7710,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -7294,10 +7725,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="50"/>
   </r>
@@ -7309,10 +7740,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="25"/>
   </r>
@@ -7324,10 +7755,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -7339,10 +7770,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -7354,10 +7785,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="12"/>
     <n v="18"/>
   </r>
@@ -7369,10 +7800,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="2"/>
     <n v="3"/>
   </r>
@@ -7384,10 +7815,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="60"/>
   </r>
@@ -7399,10 +7830,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -7414,10 +7845,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -7429,10 +7860,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -7444,10 +7875,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -7459,10 +7890,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -7474,10 +7905,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -7489,10 +7920,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -7504,10 +7935,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -7519,10 +7950,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -7534,10 +7965,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -7549,10 +7980,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -7564,10 +7995,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -7579,10 +8010,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -7594,10 +8025,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -7609,10 +8040,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="50"/>
   </r>
@@ -7624,10 +8055,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -7639,10 +8070,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -7654,10 +8085,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -7669,10 +8100,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -7684,10 +8115,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -7699,10 +8130,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="50"/>
   </r>
@@ -7714,10 +8145,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="12"/>
     <n v="18"/>
   </r>
@@ -7729,10 +8160,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="2"/>
     <n v="3"/>
   </r>
@@ -7744,10 +8175,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="60"/>
   </r>
@@ -7759,10 +8190,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -7774,10 +8205,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -7789,10 +8220,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -7804,10 +8235,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -7819,10 +8250,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -7834,10 +8265,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -7849,10 +8280,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -7864,10 +8295,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -7879,10 +8310,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -7894,10 +8325,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -7909,10 +8340,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -7924,10 +8355,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -7939,10 +8370,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -7954,10 +8385,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -7969,10 +8400,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="50"/>
   </r>
@@ -7984,10 +8415,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -7999,10 +8430,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -8014,10 +8445,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -8029,10 +8460,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -8044,10 +8475,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="50"/>
   </r>
@@ -8059,10 +8490,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="25"/>
   </r>
@@ -8074,10 +8505,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -8089,10 +8520,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -8104,10 +8535,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="12"/>
     <n v="18"/>
   </r>
@@ -8119,10 +8550,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="2"/>
     <n v="3"/>
   </r>
@@ -8134,10 +8565,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="60"/>
   </r>
@@ -8149,10 +8580,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -8164,10 +8595,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -8179,10 +8610,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -8194,10 +8625,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -8209,10 +8640,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -8224,10 +8655,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -8239,10 +8670,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -8254,10 +8685,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -8269,10 +8700,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -8284,10 +8715,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -8299,10 +8730,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -8314,10 +8745,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -8329,10 +8760,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -8344,10 +8775,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -8359,10 +8790,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="50"/>
   </r>
@@ -8374,10 +8805,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -8389,10 +8820,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -8404,10 +8835,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="58"/>
   </r>
@@ -8419,10 +8850,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -8434,10 +8865,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -8449,10 +8880,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="45"/>
   </r>
@@ -8464,10 +8895,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="12"/>
     <n v="18"/>
   </r>
@@ -8479,10 +8910,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="2"/>
     <n v="3"/>
   </r>
@@ -8494,10 +8925,10 @@
     <x v="0"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="60"/>
   </r>
@@ -8509,10 +8940,10 @@
     <x v="1"/>
     <n v="10"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="20"/>
   </r>
@@ -8524,10 +8955,10 @@
     <x v="0"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="5"/>
   </r>
@@ -8539,10 +8970,10 @@
     <x v="1"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="62"/>
   </r>
@@ -8554,10 +8985,10 @@
     <x v="0"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
   </r>
@@ -8569,10 +9000,10 @@
     <x v="1"/>
     <n v="5"/>
     <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="4"/>
   </r>
@@ -8580,8 +9011,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01A91428-B94A-4264-A080-8DCB3D86898E}" name="Tabela dinâmica1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="C5:D17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01A91428-B94A-4264-A080-8DCB3D86898E}" name="Tabela dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="C5:D18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -8872,12 +9303,12 @@
     <pivotField showAll="0">
       <items count="4">
         <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+    <pivotField numFmtId="14" showAll="0">
       <items count="295">
         <item x="0"/>
         <item x="1"/>
@@ -9192,13 +9623,31 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField numFmtId="44" showAll="0"/>
     <pivotField numFmtId="44" showAll="0"/>
     <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="369">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
@@ -9591,14 +10040,15 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="3">
+  <rowFields count="1">
     <field x="14"/>
-    <field x="13"/>
-    <field x="3"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="13">
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
@@ -9672,8 +10122,40 @@
     <tabular pivotCacheId="707725893">
       <items count="3">
         <i x="1" s="1"/>
-        <i x="2"/>
-        <i x="0"/>
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_EA_Play_Season_Pass" xr10:uid="{B8ED2518-CCB1-4C7E-BA7B-0E7E0D7F0BDE}" sourceName="EA Play Season Pass">
+  <pivotTables>
+    <pivotTable tabId="3" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="707725893">
+      <items count="2">
+        <i x="1" s="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Minecraft_Season_Pass" xr10:uid="{04891FE9-3E87-4126-B777-4F9D6BE251B4}" sourceName="Minecraft Season Pass">
+  <pivotTables>
+    <pivotTable tabId="3" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="707725893">
+      <items count="2">
+        <i x="1" s="1"/>
+        <i x="0" s="1"/>
       </items>
     </tabular>
   </data>
@@ -9683,6 +10165,13 @@
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Plan" xr10:uid="{02DFCE2C-75F7-431B-AD8F-3C5AF5BB460E}" cache="SegmentaçãodeDados_Plan" caption="Plan" style="SlicerStyleDark3" rowHeight="257175"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="EA Play Season Pass" xr10:uid="{9EF9ED7C-EE94-41C0-8A8F-9AD3F70A1555}" cache="SegmentaçãodeDados_EA_Play_Season_Pass" caption="EA Play Season Pass" style="SlicerStyleDark3" rowHeight="257175"/>
+  <slicer name="Minecraft Season Pass" xr10:uid="{B09DDD10-7664-4535-B0C1-3D27933133C5}" cache="SegmentaçãodeDados_Minecraft_Season_Pass" caption="Minecraft Season Pass" style="SlicerStyleDark3" rowHeight="257175"/>
 </slicers>
 </file>
 
@@ -10036,8 +10525,8 @@
   </sheetPr>
   <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10209,8 +10698,8 @@
   </sheetPr>
   <dimension ref="A1:M296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I294"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22380,10 +22869,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
-  <dimension ref="C5:D17"/>
+  <dimension ref="C5:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22414,95 +22903,103 @@
         <v>316</v>
       </c>
       <c r="D6" s="14">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="D7" s="14">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D8" s="14">
-        <v>44</v>
+        <v>801</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D9" s="14">
-        <v>49</v>
+        <v>782</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D10" s="14">
-        <v>43</v>
+        <v>777</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D11" s="14">
-        <v>48</v>
+        <v>770</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D12" s="14">
-        <v>49</v>
+        <v>784</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D13" s="14">
-        <v>44</v>
+        <v>787</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D14" s="14">
-        <v>44</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D15" s="14">
-        <v>44</v>
+        <v>832</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D16" s="14">
-        <v>26</v>
+        <v>784</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" s="14">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="D17" s="14">
-        <v>444</v>
+      <c r="D18" s="14">
+        <v>7633</v>
       </c>
     </row>
   </sheetData>
@@ -22522,8 +23019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
   <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22542,30 +23039,17 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -22820,26 +23304,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
-    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22856,4 +23341,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>